--- a/WebApplication1/ExcelFolder/EXCEL_CONDUCTOR_EN_RED.xlsx
+++ b/WebApplication1/ExcelFolder/EXCEL_CONDUCTOR_EN_RED.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandr\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CC1136-BAC6-4D64-B796-C3F33A4AC52A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6525E9-3157-4100-9C4B-EDFBD554C6BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CB6288AE-06AE-465F-8E9E-6F28D11CD07E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CB6288AE-06AE-465F-8E9E-6F28D11CD07E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -69,13 +69,13 @@
     <t>DOS</t>
   </si>
   <si>
-    <t>16808962-7</t>
-  </si>
-  <si>
-    <t>ROBERTO</t>
-  </si>
-  <si>
-    <t>CORDOVA</t>
+    <t>17459567-4</t>
+  </si>
+  <si>
+    <t>SERGIO</t>
+  </si>
+  <si>
+    <t>SOTO</t>
   </si>
 </sst>
 </file>
@@ -439,7 +439,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:F13"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/WebApplication1/ExcelFolder/EXCEL_CONDUCTOR_EN_RED.xlsx
+++ b/WebApplication1/ExcelFolder/EXCEL_CONDUCTOR_EN_RED.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandr\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandr\Desktop\Presentación Seminario 30-11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6525E9-3157-4100-9C4B-EDFBD554C6BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A69108-F69A-4B02-A789-D18977B99B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CB6288AE-06AE-465F-8E9E-6F28D11CD07E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="13">
   <si>
     <t>FECHA INICIO</t>
   </si>
@@ -63,19 +63,16 @@
     <t>JORNADA</t>
   </si>
   <si>
-    <t>UNO</t>
+    <t>17459567-4</t>
+  </si>
+  <si>
+    <t>Sergio</t>
+  </si>
+  <si>
+    <t>Soto</t>
   </si>
   <si>
     <t>DOS</t>
-  </si>
-  <si>
-    <t>17459567-4</t>
-  </si>
-  <si>
-    <t>SERGIO</t>
-  </si>
-  <si>
-    <t>SOTO</t>
   </si>
 </sst>
 </file>
@@ -436,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54286B2F-8F8B-4A1D-B837-ABCC2119E95E}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,22 +477,22 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1">
-        <v>44502</v>
+        <v>44529</v>
       </c>
       <c r="H2" s="2">
         <v>0.21180555555555555</v>
@@ -503,255 +500,140 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G3" s="1">
-        <v>44503</v>
+        <v>44530</v>
       </c>
       <c r="H3" s="2">
-        <v>0.21527777777777779</v>
+        <v>0.25347222222222199</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G4" s="1">
-        <v>44504</v>
+        <v>44531</v>
       </c>
       <c r="H4" s="2">
-        <v>0.21875</v>
+        <v>0.29513888888888901</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G5" s="1">
-        <v>44505</v>
+        <v>44532</v>
       </c>
       <c r="H5" s="2">
-        <v>0.22222222222222199</v>
+        <v>0.33680555555555602</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
         <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G6" s="1">
-        <v>44506</v>
+        <v>44533</v>
       </c>
       <c r="H6" s="2">
-        <v>0.225694444444444</v>
+        <v>0.37847222222222199</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
         <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G7" s="1">
-        <v>44507</v>
+        <v>44534</v>
       </c>
       <c r="H7" s="2">
-        <v>0.22916666666666699</v>
+        <v>0.42013888888888901</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
         <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G8" s="1">
-        <v>44508</v>
+        <v>44535</v>
       </c>
       <c r="H8" s="2">
-        <v>0.23263888888888901</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="1">
-        <v>44509</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0.23611111111111099</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="1">
-        <v>44510</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0.23958333333333301</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="1">
-        <v>44511</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0.243055555555555</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="1">
-        <v>44512</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0.24652777777777801</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="1">
-        <v>44513</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0.25</v>
+        <v>0.46180555555555602</v>
       </c>
     </row>
   </sheetData>

--- a/WebApplication1/ExcelFolder/EXCEL_CONDUCTOR_EN_RED.xlsx
+++ b/WebApplication1/ExcelFolder/EXCEL_CONDUCTOR_EN_RED.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandr\Desktop\Presentación Seminario 30-11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A69108-F69A-4B02-A789-D18977B99B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A3F981-FE26-404E-B527-6C265FBB3222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CB6288AE-06AE-465F-8E9E-6F28D11CD07E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="17">
   <si>
     <t>FECHA INICIO</t>
   </si>
@@ -72,7 +72,19 @@
     <t>Soto</t>
   </si>
   <si>
-    <t>DOS</t>
+    <t>UNO</t>
+  </si>
+  <si>
+    <t>16808962-7</t>
+  </si>
+  <si>
+    <t>Roberto</t>
+  </si>
+  <si>
+    <t>Cordova</t>
+  </si>
+  <si>
+    <t>LO ESPEJO</t>
   </si>
 </sst>
 </file>
@@ -433,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54286B2F-8F8B-4A1D-B837-ABCC2119E95E}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,7 +504,7 @@
         <v>12</v>
       </c>
       <c r="G2" s="1">
-        <v>44529</v>
+        <v>44536</v>
       </c>
       <c r="H2" s="2">
         <v>0.21180555555555555</v>
@@ -515,7 +527,7 @@
         <v>12</v>
       </c>
       <c r="G3" s="1">
-        <v>44530</v>
+        <v>44537</v>
       </c>
       <c r="H3" s="2">
         <v>0.25347222222222199</v>
@@ -538,7 +550,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="1">
-        <v>44531</v>
+        <v>44538</v>
       </c>
       <c r="H4" s="2">
         <v>0.29513888888888901</v>
@@ -561,7 +573,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="1">
-        <v>44532</v>
+        <v>44539</v>
       </c>
       <c r="H5" s="2">
         <v>0.33680555555555602</v>
@@ -584,7 +596,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="1">
-        <v>44533</v>
+        <v>44540</v>
       </c>
       <c r="H6" s="2">
         <v>0.37847222222222199</v>
@@ -607,7 +619,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="1">
-        <v>44534</v>
+        <v>44541</v>
       </c>
       <c r="H7" s="2">
         <v>0.42013888888888901</v>
@@ -630,9 +642,170 @@
         <v>12</v>
       </c>
       <c r="G8" s="1">
-        <v>44535</v>
+        <v>44542</v>
       </c>
       <c r="H8" s="2">
+        <v>0.46180555555555602</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="1">
+        <v>44536</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.21180555555555555</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="1">
+        <v>44537</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.25347222222222199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="1">
+        <v>44538</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.29513888888888901</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="1">
+        <v>44539</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.33680555555555602</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="1">
+        <v>44540</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.37847222222222199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="1">
+        <v>44541</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.42013888888888901</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="1">
+        <v>44542</v>
+      </c>
+      <c r="H15" s="2">
         <v>0.46180555555555602</v>
       </c>
     </row>

--- a/WebApplication1/ExcelFolder/EXCEL_CONDUCTOR_EN_RED.xlsx
+++ b/WebApplication1/ExcelFolder/EXCEL_CONDUCTOR_EN_RED.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandr\Desktop\Presentación Seminario 30-11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandr\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A3F981-FE26-404E-B527-6C265FBB3222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933E829E-FA6A-4177-BF52-82C926DA8B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CB6288AE-06AE-465F-8E9E-6F28D11CD07E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="13">
   <si>
     <t>FECHA INICIO</t>
   </si>
@@ -48,9 +48,6 @@
     <t>NOMBRE TERMINAL INICIO</t>
   </si>
   <si>
-    <t>LO MARCOLETA</t>
-  </si>
-  <si>
     <t>APELLIDO PATERNO</t>
   </si>
   <si>
@@ -63,28 +60,19 @@
     <t>JORNADA</t>
   </si>
   <si>
-    <t>17459567-4</t>
-  </si>
-  <si>
-    <t>Sergio</t>
-  </si>
-  <si>
-    <t>Soto</t>
-  </si>
-  <si>
     <t>UNO</t>
   </si>
   <si>
+    <t xml:space="preserve">Roberto </t>
+  </si>
+  <si>
+    <t>Cordova</t>
+  </si>
+  <si>
     <t>16808962-7</t>
   </si>
   <si>
-    <t>Roberto</t>
-  </si>
-  <si>
-    <t>Cordova</t>
-  </si>
-  <si>
-    <t>LO ESPEJO</t>
+    <t>Lo Marcoleta</t>
   </si>
 </sst>
 </file>
@@ -445,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54286B2F-8F8B-4A1D-B837-ABCC2119E95E}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="I1" sqref="I1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,13 +451,13 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -478,7 +466,7 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
@@ -489,22 +477,22 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G2" s="1">
-        <v>44536</v>
+        <v>44543</v>
       </c>
       <c r="H2" s="2">
         <v>0.21180555555555555</v>
@@ -512,301 +500,140 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G3" s="1">
-        <v>44537</v>
+        <v>44544</v>
       </c>
       <c r="H3" s="2">
-        <v>0.25347222222222199</v>
+        <v>0.21527777777777779</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G4" s="1">
-        <v>44538</v>
+        <v>44545</v>
       </c>
       <c r="H4" s="2">
-        <v>0.29513888888888901</v>
+        <v>0.21875</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G5" s="1">
-        <v>44539</v>
+        <v>44546</v>
       </c>
       <c r="H5" s="2">
-        <v>0.33680555555555602</v>
+        <v>0.22222222222222199</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G6" s="1">
-        <v>44540</v>
+        <v>44547</v>
       </c>
       <c r="H6" s="2">
-        <v>0.37847222222222199</v>
+        <v>0.225694444444444</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
       <c r="D7" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G7" s="1">
-        <v>44541</v>
+        <v>44548</v>
       </c>
       <c r="H7" s="2">
-        <v>0.42013888888888901</v>
+        <v>0.22916666666666699</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
       <c r="D8" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G8" s="1">
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="H8" s="2">
-        <v>0.46180555555555602</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="1">
-        <v>44536</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0.21180555555555555</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="1">
-        <v>44537</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0.25347222222222199</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="1">
-        <v>44538</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0.29513888888888901</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="1">
-        <v>44539</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0.33680555555555602</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="1">
-        <v>44540</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0.37847222222222199</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="1">
-        <v>44541</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0.42013888888888901</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="1">
-        <v>44542</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0.46180555555555602</v>
+        <v>0.23263888888888901</v>
       </c>
     </row>
   </sheetData>

--- a/WebApplication1/ExcelFolder/EXCEL_CONDUCTOR_EN_RED.xlsx
+++ b/WebApplication1/ExcelFolder/EXCEL_CONDUCTOR_EN_RED.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandr\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933E829E-FA6A-4177-BF52-82C926DA8B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F79E3DB-954C-41C0-8867-9F105F1C61AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CB6288AE-06AE-465F-8E9E-6F28D11CD07E}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CB6288AE-06AE-465F-8E9E-6F28D11CD07E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$H$152</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1548" uniqueCount="31">
   <si>
     <t>FECHA INICIO</t>
   </si>
@@ -73,6 +76,60 @@
   </si>
   <si>
     <t>Lo Marcoleta</t>
+  </si>
+  <si>
+    <t>15607794-1</t>
+  </si>
+  <si>
+    <t>16544636-4</t>
+  </si>
+  <si>
+    <t>13553755-1</t>
+  </si>
+  <si>
+    <t>13268440-5</t>
+  </si>
+  <si>
+    <t>13268393-K</t>
+  </si>
+  <si>
+    <t>16479610-8</t>
+  </si>
+  <si>
+    <t>16800057-K</t>
+  </si>
+  <si>
+    <t>16421618-7</t>
+  </si>
+  <si>
+    <t>12467172-8</t>
+  </si>
+  <si>
+    <t>16790001-1</t>
+  </si>
+  <si>
+    <t>15462101-6</t>
+  </si>
+  <si>
+    <t>17833903-6</t>
+  </si>
+  <si>
+    <t>15430483-5</t>
+  </si>
+  <si>
+    <t>16787332-4</t>
+  </si>
+  <si>
+    <t>16355382-1</t>
+  </si>
+  <si>
+    <t>15482425-1</t>
+  </si>
+  <si>
+    <t>17564691-4</t>
+  </si>
+  <si>
+    <t>16316945-2</t>
   </si>
 </sst>
 </file>
@@ -433,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54286B2F-8F8B-4A1D-B837-ABCC2119E95E}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H323"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A285" workbookViewId="0">
+      <selection activeCell="L304" sqref="L304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,7 +575,7 @@
         <v>44544</v>
       </c>
       <c r="H3" s="2">
-        <v>0.21527777777777779</v>
+        <v>0.25347222222222199</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -541,7 +598,7 @@
         <v>44545</v>
       </c>
       <c r="H4" s="2">
-        <v>0.21875</v>
+        <v>0.29513888888888901</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -564,7 +621,7 @@
         <v>44546</v>
       </c>
       <c r="H5" s="2">
-        <v>0.22222222222222199</v>
+        <v>0.33680555555555602</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -587,7 +644,7 @@
         <v>44547</v>
       </c>
       <c r="H6" s="2">
-        <v>0.225694444444444</v>
+        <v>0.37847222222222199</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -610,7 +667,7 @@
         <v>44548</v>
       </c>
       <c r="H7" s="2">
-        <v>0.22916666666666699</v>
+        <v>0.42013888888888901</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -633,10 +690,6976 @@
         <v>44549</v>
       </c>
       <c r="H8" s="2">
-        <v>0.23263888888888901</v>
-      </c>
+        <v>0.46180555555555602</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="1">
+        <v>44543</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.50347222222222199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="1">
+        <v>44544</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.54513888888888895</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="1">
+        <v>44545</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.58680555555555602</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="1">
+        <v>44546</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.62847222222222199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="1">
+        <v>44547</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.67013888888888895</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="1">
+        <v>44548</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.71180555555555602</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="1">
+        <v>44549</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.75347222222222199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="1">
+        <v>44543</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.79513888888888895</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="1">
+        <v>44544</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.83680555555555602</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="1">
+        <v>44545</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.87847222222221899</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="1">
+        <v>44546</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.92013888888888495</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="1">
+        <v>44547</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.96180555555555203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="1">
+        <v>44548</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0.21180555555555555</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="1">
+        <v>44549</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0.25347222222222199</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="1">
+        <v>44543</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0.29513888888888901</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="1">
+        <v>44544</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0.33680555555555602</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="1">
+        <v>44545</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0.37847222222222199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="1">
+        <v>44546</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0.42013888888888901</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="1">
+        <v>44547</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0.46180555555555602</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" s="1">
+        <v>44548</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0.50347222222222199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="1">
+        <v>44549</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0.54513888888888895</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" s="1">
+        <v>44543</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0.58680555555555602</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" s="1">
+        <v>44544</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0.62847222222222199</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" s="1">
+        <v>44545</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0.67013888888888895</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="1">
+        <v>44546</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0.71180555555555602</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" s="1">
+        <v>44547</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0.75347222222222199</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" s="1">
+        <v>44548</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0.79513888888888895</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" s="1">
+        <v>44549</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0.83680555555555602</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" s="1">
+        <v>44543</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0.87847222222221899</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" s="1">
+        <v>44544</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0.92013888888888495</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" s="1">
+        <v>44545</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0.96180555555555203</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" s="1">
+        <v>44546</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0.21180555555555555</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" s="1">
+        <v>44547</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0.25347222222222199</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="1">
+        <v>44548</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0.29513888888888901</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="1">
+        <v>44549</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0.33680555555555602</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="1">
+        <v>44543</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0.37847222222222199</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="1">
+        <v>44544</v>
+      </c>
+      <c r="H45" s="2">
+        <v>0.42013888888888901</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="1">
+        <v>44545</v>
+      </c>
+      <c r="H46" s="2">
+        <v>0.46180555555555602</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="1">
+        <v>44546</v>
+      </c>
+      <c r="H47" s="2">
+        <v>0.50347222222222199</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="1">
+        <v>44547</v>
+      </c>
+      <c r="H48" s="2">
+        <v>0.54513888888888895</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="1">
+        <v>44548</v>
+      </c>
+      <c r="H49" s="2">
+        <v>0.58680555555555602</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" t="s">
+        <v>8</v>
+      </c>
+      <c r="G50" s="1">
+        <v>44549</v>
+      </c>
+      <c r="H50" s="2">
+        <v>0.62847222222222199</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" s="1">
+        <v>44543</v>
+      </c>
+      <c r="H51" s="2">
+        <v>0.67013888888888895</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="1">
+        <v>44544</v>
+      </c>
+      <c r="H52" s="2">
+        <v>0.71180555555555602</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" t="s">
+        <v>8</v>
+      </c>
+      <c r="G53" s="1">
+        <v>44545</v>
+      </c>
+      <c r="H53" s="2">
+        <v>0.75347222222222199</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" t="s">
+        <v>8</v>
+      </c>
+      <c r="G54" s="1">
+        <v>44546</v>
+      </c>
+      <c r="H54" s="2">
+        <v>0.79513888888888895</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" t="s">
+        <v>8</v>
+      </c>
+      <c r="G55" s="1">
+        <v>44547</v>
+      </c>
+      <c r="H55" s="2">
+        <v>0.83680555555555602</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" t="s">
+        <v>8</v>
+      </c>
+      <c r="G56" s="1">
+        <v>44548</v>
+      </c>
+      <c r="H56" s="2">
+        <v>0.87847222222221899</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" s="1">
+        <v>44549</v>
+      </c>
+      <c r="H57" s="2">
+        <v>0.92013888888888495</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="1">
+        <v>44543</v>
+      </c>
+      <c r="H58" s="2">
+        <v>0.96180555555555203</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" t="s">
+        <v>8</v>
+      </c>
+      <c r="G59" s="1">
+        <v>44544</v>
+      </c>
+      <c r="H59" s="2">
+        <v>0.21180555555555555</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" t="s">
+        <v>8</v>
+      </c>
+      <c r="G60" s="1">
+        <v>44545</v>
+      </c>
+      <c r="H60" s="2">
+        <v>0.25347222222222199</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" t="s">
+        <v>8</v>
+      </c>
+      <c r="G61" s="1">
+        <v>44546</v>
+      </c>
+      <c r="H61" s="2">
+        <v>0.29513888888888901</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B62" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="1">
+        <v>44547</v>
+      </c>
+      <c r="H62" s="2">
+        <v>0.33680555555555602</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" t="s">
+        <v>8</v>
+      </c>
+      <c r="G63" s="1">
+        <v>44548</v>
+      </c>
+      <c r="H63" s="2">
+        <v>0.37847222222222199</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" t="s">
+        <v>8</v>
+      </c>
+      <c r="G64" s="1">
+        <v>44549</v>
+      </c>
+      <c r="H64" s="2">
+        <v>0.42013888888888901</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" t="s">
+        <v>8</v>
+      </c>
+      <c r="G65" s="1">
+        <v>44543</v>
+      </c>
+      <c r="H65" s="2">
+        <v>0.46180555555555602</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B66" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" t="s">
+        <v>8</v>
+      </c>
+      <c r="G66" s="1">
+        <v>44544</v>
+      </c>
+      <c r="H66" s="2">
+        <v>0.50347222222222199</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B67" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" t="s">
+        <v>8</v>
+      </c>
+      <c r="G67" s="1">
+        <v>44545</v>
+      </c>
+      <c r="H67" s="2">
+        <v>0.54513888888888895</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B68" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" t="s">
+        <v>8</v>
+      </c>
+      <c r="G68" s="1">
+        <v>44546</v>
+      </c>
+      <c r="H68" s="2">
+        <v>0.58680555555555602</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B69" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" t="s">
+        <v>8</v>
+      </c>
+      <c r="G69" s="1">
+        <v>44547</v>
+      </c>
+      <c r="H69" s="2">
+        <v>0.62847222222222199</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B70" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" t="s">
+        <v>8</v>
+      </c>
+      <c r="G70" s="1">
+        <v>44548</v>
+      </c>
+      <c r="H70" s="2">
+        <v>0.67013888888888895</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B71" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" t="s">
+        <v>8</v>
+      </c>
+      <c r="G71" s="1">
+        <v>44549</v>
+      </c>
+      <c r="H71" s="2">
+        <v>0.71180555555555602</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B72" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" t="s">
+        <v>8</v>
+      </c>
+      <c r="G72" s="1">
+        <v>44543</v>
+      </c>
+      <c r="H72" s="2">
+        <v>0.75347222222222199</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B73" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" t="s">
+        <v>8</v>
+      </c>
+      <c r="G73" s="1">
+        <v>44544</v>
+      </c>
+      <c r="H73" s="2">
+        <v>0.79513888888888895</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B74" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" t="s">
+        <v>8</v>
+      </c>
+      <c r="G74" s="1">
+        <v>44545</v>
+      </c>
+      <c r="H74" s="2">
+        <v>0.83680555555555602</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B75" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" t="s">
+        <v>8</v>
+      </c>
+      <c r="G75" s="1">
+        <v>44546</v>
+      </c>
+      <c r="H75" s="2">
+        <v>0.87847222222221899</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B76" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" t="s">
+        <v>8</v>
+      </c>
+      <c r="G76" s="1">
+        <v>44547</v>
+      </c>
+      <c r="H76" s="2">
+        <v>0.92013888888888495</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B77" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77" t="s">
+        <v>8</v>
+      </c>
+      <c r="G77" s="1">
+        <v>44548</v>
+      </c>
+      <c r="H77" s="2">
+        <v>0.96180555555555203</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B78" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78" t="s">
+        <v>8</v>
+      </c>
+      <c r="G78" s="1">
+        <v>44549</v>
+      </c>
+      <c r="H78" s="2">
+        <v>0.21180555555555555</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B79" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79" t="s">
+        <v>8</v>
+      </c>
+      <c r="G79" s="1">
+        <v>44543</v>
+      </c>
+      <c r="H79" s="2">
+        <v>0.25347222222222199</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B80" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80" t="s">
+        <v>12</v>
+      </c>
+      <c r="F80" t="s">
+        <v>8</v>
+      </c>
+      <c r="G80" s="1">
+        <v>44544</v>
+      </c>
+      <c r="H80" s="2">
+        <v>0.29513888888888901</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B81" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81" t="s">
+        <v>12</v>
+      </c>
+      <c r="F81" t="s">
+        <v>8</v>
+      </c>
+      <c r="G81" s="1">
+        <v>44545</v>
+      </c>
+      <c r="H81" s="2">
+        <v>0.33680555555555602</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B82" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" t="s">
+        <v>12</v>
+      </c>
+      <c r="F82" t="s">
+        <v>8</v>
+      </c>
+      <c r="G82" s="1">
+        <v>44546</v>
+      </c>
+      <c r="H82" s="2">
+        <v>0.37847222222222199</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B83" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83" t="s">
+        <v>12</v>
+      </c>
+      <c r="F83" t="s">
+        <v>8</v>
+      </c>
+      <c r="G83" s="1">
+        <v>44547</v>
+      </c>
+      <c r="H83" s="2">
+        <v>0.42013888888888901</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B84" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" t="s">
+        <v>10</v>
+      </c>
+      <c r="D84" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84" t="s">
+        <v>8</v>
+      </c>
+      <c r="G84" s="1">
+        <v>44548</v>
+      </c>
+      <c r="H84" s="2">
+        <v>0.46180555555555602</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B85" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" t="s">
+        <v>10</v>
+      </c>
+      <c r="D85" t="s">
+        <v>12</v>
+      </c>
+      <c r="F85" t="s">
+        <v>8</v>
+      </c>
+      <c r="G85" s="1">
+        <v>44549</v>
+      </c>
+      <c r="H85" s="2">
+        <v>0.50347222222222199</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B86" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" t="s">
+        <v>10</v>
+      </c>
+      <c r="D86" t="s">
+        <v>12</v>
+      </c>
+      <c r="F86" t="s">
+        <v>8</v>
+      </c>
+      <c r="G86" s="1">
+        <v>44543</v>
+      </c>
+      <c r="H86" s="2">
+        <v>0.54513888888888895</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B87" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" t="s">
+        <v>10</v>
+      </c>
+      <c r="D87" t="s">
+        <v>12</v>
+      </c>
+      <c r="F87" t="s">
+        <v>8</v>
+      </c>
+      <c r="G87" s="1">
+        <v>44544</v>
+      </c>
+      <c r="H87" s="2">
+        <v>0.58680555555555602</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B88" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" t="s">
+        <v>10</v>
+      </c>
+      <c r="D88" t="s">
+        <v>12</v>
+      </c>
+      <c r="F88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G88" s="1">
+        <v>44545</v>
+      </c>
+      <c r="H88" s="2">
+        <v>0.62847222222222199</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B89" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" t="s">
+        <v>10</v>
+      </c>
+      <c r="D89" t="s">
+        <v>12</v>
+      </c>
+      <c r="F89" t="s">
+        <v>8</v>
+      </c>
+      <c r="G89" s="1">
+        <v>44546</v>
+      </c>
+      <c r="H89" s="2">
+        <v>0.67013888888888895</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B90" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" t="s">
+        <v>10</v>
+      </c>
+      <c r="D90" t="s">
+        <v>12</v>
+      </c>
+      <c r="F90" t="s">
+        <v>8</v>
+      </c>
+      <c r="G90" s="1">
+        <v>44547</v>
+      </c>
+      <c r="H90" s="2">
+        <v>0.71180555555555602</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B91" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" t="s">
+        <v>10</v>
+      </c>
+      <c r="D91" t="s">
+        <v>12</v>
+      </c>
+      <c r="F91" t="s">
+        <v>8</v>
+      </c>
+      <c r="G91" s="1">
+        <v>44548</v>
+      </c>
+      <c r="H91" s="2">
+        <v>0.75347222222222199</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B92" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92" t="s">
+        <v>10</v>
+      </c>
+      <c r="D92" t="s">
+        <v>12</v>
+      </c>
+      <c r="F92" t="s">
+        <v>8</v>
+      </c>
+      <c r="G92" s="1">
+        <v>44549</v>
+      </c>
+      <c r="H92" s="2">
+        <v>0.79513888888888895</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B93" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" t="s">
+        <v>10</v>
+      </c>
+      <c r="D93" t="s">
+        <v>12</v>
+      </c>
+      <c r="F93" t="s">
+        <v>8</v>
+      </c>
+      <c r="G93" s="1">
+        <v>44543</v>
+      </c>
+      <c r="H93" s="2">
+        <v>0.83680555555555602</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B94" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94" t="s">
+        <v>10</v>
+      </c>
+      <c r="D94" t="s">
+        <v>12</v>
+      </c>
+      <c r="F94" t="s">
+        <v>8</v>
+      </c>
+      <c r="G94" s="1">
+        <v>44544</v>
+      </c>
+      <c r="H94" s="2">
+        <v>0.87847222222221899</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B95" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" t="s">
+        <v>10</v>
+      </c>
+      <c r="D95" t="s">
+        <v>12</v>
+      </c>
+      <c r="F95" t="s">
+        <v>8</v>
+      </c>
+      <c r="G95" s="1">
+        <v>44545</v>
+      </c>
+      <c r="H95" s="2">
+        <v>0.92013888888888495</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B96" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96" t="s">
+        <v>10</v>
+      </c>
+      <c r="D96" t="s">
+        <v>12</v>
+      </c>
+      <c r="F96" t="s">
+        <v>8</v>
+      </c>
+      <c r="G96" s="1">
+        <v>44546</v>
+      </c>
+      <c r="H96" s="2">
+        <v>0.96180555555555203</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B97" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97" t="s">
+        <v>10</v>
+      </c>
+      <c r="D97" t="s">
+        <v>12</v>
+      </c>
+      <c r="F97" t="s">
+        <v>8</v>
+      </c>
+      <c r="G97" s="1">
+        <v>44547</v>
+      </c>
+      <c r="H97" s="2">
+        <v>0.21180555555555555</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B98" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98" t="s">
+        <v>10</v>
+      </c>
+      <c r="D98" t="s">
+        <v>12</v>
+      </c>
+      <c r="F98" t="s">
+        <v>8</v>
+      </c>
+      <c r="G98" s="1">
+        <v>44548</v>
+      </c>
+      <c r="H98" s="2">
+        <v>0.25347222222222199</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B99" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" t="s">
+        <v>10</v>
+      </c>
+      <c r="D99" t="s">
+        <v>12</v>
+      </c>
+      <c r="F99" t="s">
+        <v>8</v>
+      </c>
+      <c r="G99" s="1">
+        <v>44549</v>
+      </c>
+      <c r="H99" s="2">
+        <v>0.29513888888888901</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B100" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100" t="s">
+        <v>10</v>
+      </c>
+      <c r="D100" t="s">
+        <v>12</v>
+      </c>
+      <c r="F100" t="s">
+        <v>8</v>
+      </c>
+      <c r="G100" s="1">
+        <v>44543</v>
+      </c>
+      <c r="H100" s="2">
+        <v>0.33680555555555602</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B101" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101" t="s">
+        <v>10</v>
+      </c>
+      <c r="D101" t="s">
+        <v>12</v>
+      </c>
+      <c r="F101" t="s">
+        <v>8</v>
+      </c>
+      <c r="G101" s="1">
+        <v>44544</v>
+      </c>
+      <c r="H101" s="2">
+        <v>0.37847222222222199</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B102" t="s">
+        <v>9</v>
+      </c>
+      <c r="C102" t="s">
+        <v>10</v>
+      </c>
+      <c r="D102" t="s">
+        <v>12</v>
+      </c>
+      <c r="F102" t="s">
+        <v>8</v>
+      </c>
+      <c r="G102" s="1">
+        <v>44545</v>
+      </c>
+      <c r="H102" s="2">
+        <v>0.42013888888888901</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B103" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103" t="s">
+        <v>10</v>
+      </c>
+      <c r="D103" t="s">
+        <v>12</v>
+      </c>
+      <c r="F103" t="s">
+        <v>8</v>
+      </c>
+      <c r="G103" s="1">
+        <v>44546</v>
+      </c>
+      <c r="H103" s="2">
+        <v>0.46180555555555602</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B104" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104" t="s">
+        <v>10</v>
+      </c>
+      <c r="D104" t="s">
+        <v>12</v>
+      </c>
+      <c r="F104" t="s">
+        <v>8</v>
+      </c>
+      <c r="G104" s="1">
+        <v>44547</v>
+      </c>
+      <c r="H104" s="2">
+        <v>0.50347222222222199</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B105" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105" t="s">
+        <v>10</v>
+      </c>
+      <c r="D105" t="s">
+        <v>12</v>
+      </c>
+      <c r="F105" t="s">
+        <v>8</v>
+      </c>
+      <c r="G105" s="1">
+        <v>44548</v>
+      </c>
+      <c r="H105" s="2">
+        <v>0.54513888888888895</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B106" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106" t="s">
+        <v>10</v>
+      </c>
+      <c r="D106" t="s">
+        <v>12</v>
+      </c>
+      <c r="F106" t="s">
+        <v>8</v>
+      </c>
+      <c r="G106" s="1">
+        <v>44549</v>
+      </c>
+      <c r="H106" s="2">
+        <v>0.58680555555555602</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B107" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107" t="s">
+        <v>10</v>
+      </c>
+      <c r="D107" t="s">
+        <v>12</v>
+      </c>
+      <c r="F107" t="s">
+        <v>8</v>
+      </c>
+      <c r="G107" s="1">
+        <v>44543</v>
+      </c>
+      <c r="H107" s="2">
+        <v>0.62847222222222199</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B108" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108" t="s">
+        <v>10</v>
+      </c>
+      <c r="D108" t="s">
+        <v>12</v>
+      </c>
+      <c r="F108" t="s">
+        <v>8</v>
+      </c>
+      <c r="G108" s="1">
+        <v>44544</v>
+      </c>
+      <c r="H108" s="2">
+        <v>0.67013888888888895</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B109" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109" t="s">
+        <v>10</v>
+      </c>
+      <c r="D109" t="s">
+        <v>12</v>
+      </c>
+      <c r="F109" t="s">
+        <v>8</v>
+      </c>
+      <c r="G109" s="1">
+        <v>44545</v>
+      </c>
+      <c r="H109" s="2">
+        <v>0.71180555555555602</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B110" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110" t="s">
+        <v>10</v>
+      </c>
+      <c r="D110" t="s">
+        <v>12</v>
+      </c>
+      <c r="F110" t="s">
+        <v>8</v>
+      </c>
+      <c r="G110" s="1">
+        <v>44546</v>
+      </c>
+      <c r="H110" s="2">
+        <v>0.75347222222222199</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B111" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" t="s">
+        <v>10</v>
+      </c>
+      <c r="D111" t="s">
+        <v>12</v>
+      </c>
+      <c r="F111" t="s">
+        <v>8</v>
+      </c>
+      <c r="G111" s="1">
+        <v>44547</v>
+      </c>
+      <c r="H111" s="2">
+        <v>0.79513888888888895</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B112" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112" t="s">
+        <v>10</v>
+      </c>
+      <c r="D112" t="s">
+        <v>12</v>
+      </c>
+      <c r="F112" t="s">
+        <v>8</v>
+      </c>
+      <c r="G112" s="1">
+        <v>44548</v>
+      </c>
+      <c r="H112" s="2">
+        <v>0.83680555555555602</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B113" t="s">
+        <v>9</v>
+      </c>
+      <c r="C113" t="s">
+        <v>10</v>
+      </c>
+      <c r="D113" t="s">
+        <v>12</v>
+      </c>
+      <c r="F113" t="s">
+        <v>8</v>
+      </c>
+      <c r="G113" s="1">
+        <v>44549</v>
+      </c>
+      <c r="H113" s="2">
+        <v>0.87847222222221899</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B114" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114" t="s">
+        <v>10</v>
+      </c>
+      <c r="D114" t="s">
+        <v>12</v>
+      </c>
+      <c r="F114" t="s">
+        <v>8</v>
+      </c>
+      <c r="G114" s="1">
+        <v>44543</v>
+      </c>
+      <c r="H114" s="2">
+        <v>0.92013888888888495</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B115" t="s">
+        <v>9</v>
+      </c>
+      <c r="C115" t="s">
+        <v>10</v>
+      </c>
+      <c r="D115" t="s">
+        <v>12</v>
+      </c>
+      <c r="F115" t="s">
+        <v>8</v>
+      </c>
+      <c r="G115" s="1">
+        <v>44544</v>
+      </c>
+      <c r="H115" s="2">
+        <v>0.96180555555555203</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B116" t="s">
+        <v>9</v>
+      </c>
+      <c r="C116" t="s">
+        <v>10</v>
+      </c>
+      <c r="D116" t="s">
+        <v>12</v>
+      </c>
+      <c r="F116" t="s">
+        <v>8</v>
+      </c>
+      <c r="G116" s="1">
+        <v>44545</v>
+      </c>
+      <c r="H116" s="2">
+        <v>0.21180555555555555</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B117" t="s">
+        <v>9</v>
+      </c>
+      <c r="C117" t="s">
+        <v>10</v>
+      </c>
+      <c r="D117" t="s">
+        <v>12</v>
+      </c>
+      <c r="F117" t="s">
+        <v>8</v>
+      </c>
+      <c r="G117" s="1">
+        <v>44546</v>
+      </c>
+      <c r="H117" s="2">
+        <v>0.25347222222222199</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B118" t="s">
+        <v>9</v>
+      </c>
+      <c r="C118" t="s">
+        <v>10</v>
+      </c>
+      <c r="D118" t="s">
+        <v>12</v>
+      </c>
+      <c r="F118" t="s">
+        <v>8</v>
+      </c>
+      <c r="G118" s="1">
+        <v>44547</v>
+      </c>
+      <c r="H118" s="2">
+        <v>0.29513888888888901</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B119" t="s">
+        <v>9</v>
+      </c>
+      <c r="C119" t="s">
+        <v>10</v>
+      </c>
+      <c r="D119" t="s">
+        <v>12</v>
+      </c>
+      <c r="F119" t="s">
+        <v>8</v>
+      </c>
+      <c r="G119" s="1">
+        <v>44548</v>
+      </c>
+      <c r="H119" s="2">
+        <v>0.33680555555555602</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B120" t="s">
+        <v>9</v>
+      </c>
+      <c r="C120" t="s">
+        <v>10</v>
+      </c>
+      <c r="D120" t="s">
+        <v>12</v>
+      </c>
+      <c r="F120" t="s">
+        <v>8</v>
+      </c>
+      <c r="G120" s="1">
+        <v>44549</v>
+      </c>
+      <c r="H120" s="2">
+        <v>0.37847222222222199</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B121" t="s">
+        <v>9</v>
+      </c>
+      <c r="C121" t="s">
+        <v>10</v>
+      </c>
+      <c r="D121" t="s">
+        <v>12</v>
+      </c>
+      <c r="F121" t="s">
+        <v>8</v>
+      </c>
+      <c r="G121" s="1">
+        <v>44543</v>
+      </c>
+      <c r="H121" s="2">
+        <v>0.42013888888888901</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B122" t="s">
+        <v>9</v>
+      </c>
+      <c r="C122" t="s">
+        <v>10</v>
+      </c>
+      <c r="D122" t="s">
+        <v>12</v>
+      </c>
+      <c r="F122" t="s">
+        <v>8</v>
+      </c>
+      <c r="G122" s="1">
+        <v>44544</v>
+      </c>
+      <c r="H122" s="2">
+        <v>0.46180555555555602</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B123" t="s">
+        <v>9</v>
+      </c>
+      <c r="C123" t="s">
+        <v>10</v>
+      </c>
+      <c r="D123" t="s">
+        <v>12</v>
+      </c>
+      <c r="F123" t="s">
+        <v>8</v>
+      </c>
+      <c r="G123" s="1">
+        <v>44545</v>
+      </c>
+      <c r="H123" s="2">
+        <v>0.50347222222222199</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B124" t="s">
+        <v>9</v>
+      </c>
+      <c r="C124" t="s">
+        <v>10</v>
+      </c>
+      <c r="D124" t="s">
+        <v>12</v>
+      </c>
+      <c r="F124" t="s">
+        <v>8</v>
+      </c>
+      <c r="G124" s="1">
+        <v>44546</v>
+      </c>
+      <c r="H124" s="2">
+        <v>0.54513888888888895</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B125" t="s">
+        <v>9</v>
+      </c>
+      <c r="C125" t="s">
+        <v>10</v>
+      </c>
+      <c r="D125" t="s">
+        <v>12</v>
+      </c>
+      <c r="F125" t="s">
+        <v>8</v>
+      </c>
+      <c r="G125" s="1">
+        <v>44547</v>
+      </c>
+      <c r="H125" s="2">
+        <v>0.58680555555555602</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B126" t="s">
+        <v>9</v>
+      </c>
+      <c r="C126" t="s">
+        <v>10</v>
+      </c>
+      <c r="D126" t="s">
+        <v>12</v>
+      </c>
+      <c r="F126" t="s">
+        <v>8</v>
+      </c>
+      <c r="G126" s="1">
+        <v>44548</v>
+      </c>
+      <c r="H126" s="2">
+        <v>0.62847222222222199</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B127" t="s">
+        <v>9</v>
+      </c>
+      <c r="C127" t="s">
+        <v>10</v>
+      </c>
+      <c r="D127" t="s">
+        <v>12</v>
+      </c>
+      <c r="F127" t="s">
+        <v>8</v>
+      </c>
+      <c r="G127" s="1">
+        <v>44549</v>
+      </c>
+      <c r="H127" s="2">
+        <v>0.67013888888888895</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B128" t="s">
+        <v>9</v>
+      </c>
+      <c r="C128" t="s">
+        <v>10</v>
+      </c>
+      <c r="D128" t="s">
+        <v>12</v>
+      </c>
+      <c r="F128" t="s">
+        <v>8</v>
+      </c>
+      <c r="G128" s="1">
+        <v>44543</v>
+      </c>
+      <c r="H128" s="2">
+        <v>0.71180555555555602</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B129" t="s">
+        <v>9</v>
+      </c>
+      <c r="C129" t="s">
+        <v>10</v>
+      </c>
+      <c r="D129" t="s">
+        <v>12</v>
+      </c>
+      <c r="F129" t="s">
+        <v>8</v>
+      </c>
+      <c r="G129" s="1">
+        <v>44544</v>
+      </c>
+      <c r="H129" s="2">
+        <v>0.75347222222222199</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B130" t="s">
+        <v>9</v>
+      </c>
+      <c r="C130" t="s">
+        <v>10</v>
+      </c>
+      <c r="D130" t="s">
+        <v>12</v>
+      </c>
+      <c r="F130" t="s">
+        <v>8</v>
+      </c>
+      <c r="G130" s="1">
+        <v>44545</v>
+      </c>
+      <c r="H130" s="2">
+        <v>0.79513888888888895</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B131" t="s">
+        <v>9</v>
+      </c>
+      <c r="C131" t="s">
+        <v>10</v>
+      </c>
+      <c r="D131" t="s">
+        <v>12</v>
+      </c>
+      <c r="F131" t="s">
+        <v>8</v>
+      </c>
+      <c r="G131" s="1">
+        <v>44546</v>
+      </c>
+      <c r="H131" s="2">
+        <v>0.83680555555555602</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B132" t="s">
+        <v>9</v>
+      </c>
+      <c r="C132" t="s">
+        <v>10</v>
+      </c>
+      <c r="D132" t="s">
+        <v>12</v>
+      </c>
+      <c r="F132" t="s">
+        <v>8</v>
+      </c>
+      <c r="G132" s="1">
+        <v>44547</v>
+      </c>
+      <c r="H132" s="2">
+        <v>0.87847222222221899</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B133" t="s">
+        <v>9</v>
+      </c>
+      <c r="C133" t="s">
+        <v>10</v>
+      </c>
+      <c r="D133" t="s">
+        <v>12</v>
+      </c>
+      <c r="F133" t="s">
+        <v>8</v>
+      </c>
+      <c r="G133" s="1">
+        <v>44548</v>
+      </c>
+      <c r="H133" s="2">
+        <v>0.92013888888888495</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B134" t="s">
+        <v>9</v>
+      </c>
+      <c r="C134" t="s">
+        <v>10</v>
+      </c>
+      <c r="D134" t="s">
+        <v>12</v>
+      </c>
+      <c r="F134" t="s">
+        <v>8</v>
+      </c>
+      <c r="G134" s="1">
+        <v>44549</v>
+      </c>
+      <c r="H134" s="2">
+        <v>0.96180555555555203</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B135" t="s">
+        <v>9</v>
+      </c>
+      <c r="C135" t="s">
+        <v>10</v>
+      </c>
+      <c r="D135" t="s">
+        <v>12</v>
+      </c>
+      <c r="F135" t="s">
+        <v>8</v>
+      </c>
+      <c r="G135" s="1">
+        <v>44543</v>
+      </c>
+      <c r="H135" s="2">
+        <v>0.21180555555555555</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B136" t="s">
+        <v>9</v>
+      </c>
+      <c r="C136" t="s">
+        <v>10</v>
+      </c>
+      <c r="D136" t="s">
+        <v>12</v>
+      </c>
+      <c r="F136" t="s">
+        <v>8</v>
+      </c>
+      <c r="G136" s="1">
+        <v>44544</v>
+      </c>
+      <c r="H136" s="2">
+        <v>0.25347222222222199</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B137" t="s">
+        <v>9</v>
+      </c>
+      <c r="C137" t="s">
+        <v>10</v>
+      </c>
+      <c r="D137" t="s">
+        <v>12</v>
+      </c>
+      <c r="F137" t="s">
+        <v>8</v>
+      </c>
+      <c r="G137" s="1">
+        <v>44545</v>
+      </c>
+      <c r="H137" s="2">
+        <v>0.29513888888888901</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B138" t="s">
+        <v>9</v>
+      </c>
+      <c r="C138" t="s">
+        <v>10</v>
+      </c>
+      <c r="D138" t="s">
+        <v>12</v>
+      </c>
+      <c r="F138" t="s">
+        <v>8</v>
+      </c>
+      <c r="G138" s="1">
+        <v>44546</v>
+      </c>
+      <c r="H138" s="2">
+        <v>0.33680555555555602</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B139" t="s">
+        <v>9</v>
+      </c>
+      <c r="C139" t="s">
+        <v>10</v>
+      </c>
+      <c r="D139" t="s">
+        <v>12</v>
+      </c>
+      <c r="F139" t="s">
+        <v>8</v>
+      </c>
+      <c r="G139" s="1">
+        <v>44547</v>
+      </c>
+      <c r="H139" s="2">
+        <v>0.37847222222222199</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B140" t="s">
+        <v>9</v>
+      </c>
+      <c r="C140" t="s">
+        <v>10</v>
+      </c>
+      <c r="D140" t="s">
+        <v>12</v>
+      </c>
+      <c r="F140" t="s">
+        <v>8</v>
+      </c>
+      <c r="G140" s="1">
+        <v>44548</v>
+      </c>
+      <c r="H140" s="2">
+        <v>0.42013888888888901</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B141" t="s">
+        <v>9</v>
+      </c>
+      <c r="C141" t="s">
+        <v>10</v>
+      </c>
+      <c r="D141" t="s">
+        <v>12</v>
+      </c>
+      <c r="F141" t="s">
+        <v>8</v>
+      </c>
+      <c r="G141" s="1">
+        <v>44549</v>
+      </c>
+      <c r="H141" s="2">
+        <v>0.46180555555555602</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B142" t="s">
+        <v>9</v>
+      </c>
+      <c r="C142" t="s">
+        <v>10</v>
+      </c>
+      <c r="D142" t="s">
+        <v>12</v>
+      </c>
+      <c r="F142" t="s">
+        <v>8</v>
+      </c>
+      <c r="G142" s="1">
+        <v>44543</v>
+      </c>
+      <c r="H142" s="2">
+        <v>0.50347222222222199</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B143" t="s">
+        <v>9</v>
+      </c>
+      <c r="C143" t="s">
+        <v>10</v>
+      </c>
+      <c r="D143" t="s">
+        <v>12</v>
+      </c>
+      <c r="F143" t="s">
+        <v>8</v>
+      </c>
+      <c r="G143" s="1">
+        <v>44544</v>
+      </c>
+      <c r="H143" s="2">
+        <v>0.54513888888888895</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B144" t="s">
+        <v>9</v>
+      </c>
+      <c r="C144" t="s">
+        <v>10</v>
+      </c>
+      <c r="D144" t="s">
+        <v>12</v>
+      </c>
+      <c r="F144" t="s">
+        <v>8</v>
+      </c>
+      <c r="G144" s="1">
+        <v>44545</v>
+      </c>
+      <c r="H144" s="2">
+        <v>0.58680555555555602</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B145" t="s">
+        <v>9</v>
+      </c>
+      <c r="C145" t="s">
+        <v>10</v>
+      </c>
+      <c r="D145" t="s">
+        <v>12</v>
+      </c>
+      <c r="F145" t="s">
+        <v>8</v>
+      </c>
+      <c r="G145" s="1">
+        <v>44546</v>
+      </c>
+      <c r="H145" s="2">
+        <v>0.62847222222222199</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B146" t="s">
+        <v>9</v>
+      </c>
+      <c r="C146" t="s">
+        <v>10</v>
+      </c>
+      <c r="D146" t="s">
+        <v>12</v>
+      </c>
+      <c r="F146" t="s">
+        <v>8</v>
+      </c>
+      <c r="G146" s="1">
+        <v>44547</v>
+      </c>
+      <c r="H146" s="2">
+        <v>0.67013888888888895</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B147" t="s">
+        <v>9</v>
+      </c>
+      <c r="C147" t="s">
+        <v>10</v>
+      </c>
+      <c r="D147" t="s">
+        <v>12</v>
+      </c>
+      <c r="F147" t="s">
+        <v>8</v>
+      </c>
+      <c r="G147" s="1">
+        <v>44548</v>
+      </c>
+      <c r="H147" s="2">
+        <v>0.71180555555555602</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B148" t="s">
+        <v>9</v>
+      </c>
+      <c r="C148" t="s">
+        <v>10</v>
+      </c>
+      <c r="D148" t="s">
+        <v>12</v>
+      </c>
+      <c r="F148" t="s">
+        <v>8</v>
+      </c>
+      <c r="G148" s="1">
+        <v>44549</v>
+      </c>
+      <c r="H148" s="2">
+        <v>0.75347222222222199</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B149" t="s">
+        <v>9</v>
+      </c>
+      <c r="C149" t="s">
+        <v>10</v>
+      </c>
+      <c r="D149" t="s">
+        <v>12</v>
+      </c>
+      <c r="F149" t="s">
+        <v>8</v>
+      </c>
+      <c r="G149" s="1">
+        <v>44543</v>
+      </c>
+      <c r="H149" s="2">
+        <v>0.79513888888888895</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B150" t="s">
+        <v>9</v>
+      </c>
+      <c r="C150" t="s">
+        <v>10</v>
+      </c>
+      <c r="D150" t="s">
+        <v>12</v>
+      </c>
+      <c r="F150" t="s">
+        <v>8</v>
+      </c>
+      <c r="G150" s="1">
+        <v>44544</v>
+      </c>
+      <c r="H150" s="2">
+        <v>0.83680555555555602</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B151" t="s">
+        <v>9</v>
+      </c>
+      <c r="C151" t="s">
+        <v>10</v>
+      </c>
+      <c r="D151" t="s">
+        <v>12</v>
+      </c>
+      <c r="F151" t="s">
+        <v>8</v>
+      </c>
+      <c r="G151" s="1">
+        <v>44545</v>
+      </c>
+      <c r="H151" s="2">
+        <v>0.87847222222221899</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B152" t="s">
+        <v>9</v>
+      </c>
+      <c r="C152" t="s">
+        <v>10</v>
+      </c>
+      <c r="D152" t="s">
+        <v>12</v>
+      </c>
+      <c r="F152" t="s">
+        <v>8</v>
+      </c>
+      <c r="G152" s="1">
+        <v>44546</v>
+      </c>
+      <c r="H152" s="2">
+        <v>0.92013888888888495</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B153" t="s">
+        <v>9</v>
+      </c>
+      <c r="C153" t="s">
+        <v>10</v>
+      </c>
+      <c r="D153" t="s">
+        <v>12</v>
+      </c>
+      <c r="F153" t="s">
+        <v>8</v>
+      </c>
+      <c r="G153" s="1">
+        <v>44547</v>
+      </c>
+      <c r="H153" s="2">
+        <v>0.96180555555555203</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B154" t="s">
+        <v>9</v>
+      </c>
+      <c r="C154" t="s">
+        <v>10</v>
+      </c>
+      <c r="D154" t="s">
+        <v>12</v>
+      </c>
+      <c r="F154" t="s">
+        <v>8</v>
+      </c>
+      <c r="G154" s="1">
+        <v>44548</v>
+      </c>
+      <c r="H154" s="2">
+        <v>0.21180555555555555</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B155" t="s">
+        <v>9</v>
+      </c>
+      <c r="C155" t="s">
+        <v>10</v>
+      </c>
+      <c r="D155" t="s">
+        <v>12</v>
+      </c>
+      <c r="F155" t="s">
+        <v>8</v>
+      </c>
+      <c r="G155" s="1">
+        <v>44549</v>
+      </c>
+      <c r="H155" s="2">
+        <v>0.25347222222222199</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B156" t="s">
+        <v>9</v>
+      </c>
+      <c r="C156" t="s">
+        <v>10</v>
+      </c>
+      <c r="D156" t="s">
+        <v>12</v>
+      </c>
+      <c r="F156" t="s">
+        <v>8</v>
+      </c>
+      <c r="G156" s="1">
+        <v>44550</v>
+      </c>
+      <c r="H156" s="2">
+        <v>0.21180555555555555</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B157" t="s">
+        <v>9</v>
+      </c>
+      <c r="C157" t="s">
+        <v>10</v>
+      </c>
+      <c r="D157" t="s">
+        <v>12</v>
+      </c>
+      <c r="F157" t="s">
+        <v>8</v>
+      </c>
+      <c r="G157" s="1">
+        <v>44551</v>
+      </c>
+      <c r="H157" s="2">
+        <v>0.25347222222222199</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B158" t="s">
+        <v>9</v>
+      </c>
+      <c r="C158" t="s">
+        <v>10</v>
+      </c>
+      <c r="D158" t="s">
+        <v>12</v>
+      </c>
+      <c r="F158" t="s">
+        <v>8</v>
+      </c>
+      <c r="G158" s="1">
+        <v>44552</v>
+      </c>
+      <c r="H158" s="2">
+        <v>0.29513888888888901</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B159" t="s">
+        <v>9</v>
+      </c>
+      <c r="C159" t="s">
+        <v>10</v>
+      </c>
+      <c r="D159" t="s">
+        <v>12</v>
+      </c>
+      <c r="F159" t="s">
+        <v>8</v>
+      </c>
+      <c r="G159" s="1">
+        <v>44553</v>
+      </c>
+      <c r="H159" s="2">
+        <v>0.33680555555555602</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B160" t="s">
+        <v>9</v>
+      </c>
+      <c r="C160" t="s">
+        <v>10</v>
+      </c>
+      <c r="D160" t="s">
+        <v>12</v>
+      </c>
+      <c r="F160" t="s">
+        <v>8</v>
+      </c>
+      <c r="G160" s="1">
+        <v>44554</v>
+      </c>
+      <c r="H160" s="2">
+        <v>0.37847222222222199</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B161" t="s">
+        <v>9</v>
+      </c>
+      <c r="C161" t="s">
+        <v>10</v>
+      </c>
+      <c r="D161" t="s">
+        <v>12</v>
+      </c>
+      <c r="F161" t="s">
+        <v>8</v>
+      </c>
+      <c r="G161" s="1">
+        <v>44555</v>
+      </c>
+      <c r="H161" s="2">
+        <v>0.42013888888888901</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B162" t="s">
+        <v>9</v>
+      </c>
+      <c r="C162" t="s">
+        <v>10</v>
+      </c>
+      <c r="D162" t="s">
+        <v>12</v>
+      </c>
+      <c r="F162" t="s">
+        <v>8</v>
+      </c>
+      <c r="G162" s="1">
+        <v>44556</v>
+      </c>
+      <c r="H162" s="2">
+        <v>0.46180555555555602</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>13</v>
+      </c>
+      <c r="B163" t="s">
+        <v>9</v>
+      </c>
+      <c r="C163" t="s">
+        <v>10</v>
+      </c>
+      <c r="D163" t="s">
+        <v>12</v>
+      </c>
+      <c r="F163" t="s">
+        <v>8</v>
+      </c>
+      <c r="G163" s="1">
+        <v>44550</v>
+      </c>
+      <c r="H163" s="2">
+        <v>0.50347222222222199</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>13</v>
+      </c>
+      <c r="B164" t="s">
+        <v>9</v>
+      </c>
+      <c r="C164" t="s">
+        <v>10</v>
+      </c>
+      <c r="D164" t="s">
+        <v>12</v>
+      </c>
+      <c r="F164" t="s">
+        <v>8</v>
+      </c>
+      <c r="G164" s="1">
+        <v>44551</v>
+      </c>
+      <c r="H164" s="2">
+        <v>0.54513888888888895</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>13</v>
+      </c>
+      <c r="B165" t="s">
+        <v>9</v>
+      </c>
+      <c r="C165" t="s">
+        <v>10</v>
+      </c>
+      <c r="D165" t="s">
+        <v>12</v>
+      </c>
+      <c r="F165" t="s">
+        <v>8</v>
+      </c>
+      <c r="G165" s="1">
+        <v>44552</v>
+      </c>
+      <c r="H165" s="2">
+        <v>0.58680555555555602</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>13</v>
+      </c>
+      <c r="B166" t="s">
+        <v>9</v>
+      </c>
+      <c r="C166" t="s">
+        <v>10</v>
+      </c>
+      <c r="D166" t="s">
+        <v>12</v>
+      </c>
+      <c r="F166" t="s">
+        <v>8</v>
+      </c>
+      <c r="G166" s="1">
+        <v>44553</v>
+      </c>
+      <c r="H166" s="2">
+        <v>0.62847222222222199</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>13</v>
+      </c>
+      <c r="B167" t="s">
+        <v>9</v>
+      </c>
+      <c r="C167" t="s">
+        <v>10</v>
+      </c>
+      <c r="D167" t="s">
+        <v>12</v>
+      </c>
+      <c r="F167" t="s">
+        <v>8</v>
+      </c>
+      <c r="G167" s="1">
+        <v>44554</v>
+      </c>
+      <c r="H167" s="2">
+        <v>0.67013888888888895</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>13</v>
+      </c>
+      <c r="B168" t="s">
+        <v>9</v>
+      </c>
+      <c r="C168" t="s">
+        <v>10</v>
+      </c>
+      <c r="D168" t="s">
+        <v>12</v>
+      </c>
+      <c r="F168" t="s">
+        <v>8</v>
+      </c>
+      <c r="G168" s="1">
+        <v>44555</v>
+      </c>
+      <c r="H168" s="2">
+        <v>0.71180555555555602</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>13</v>
+      </c>
+      <c r="B169" t="s">
+        <v>9</v>
+      </c>
+      <c r="C169" t="s">
+        <v>10</v>
+      </c>
+      <c r="D169" t="s">
+        <v>12</v>
+      </c>
+      <c r="F169" t="s">
+        <v>8</v>
+      </c>
+      <c r="G169" s="1">
+        <v>44556</v>
+      </c>
+      <c r="H169" s="2">
+        <v>0.75347222222222199</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>14</v>
+      </c>
+      <c r="B170" t="s">
+        <v>9</v>
+      </c>
+      <c r="C170" t="s">
+        <v>10</v>
+      </c>
+      <c r="D170" t="s">
+        <v>12</v>
+      </c>
+      <c r="F170" t="s">
+        <v>8</v>
+      </c>
+      <c r="G170" s="1">
+        <v>44550</v>
+      </c>
+      <c r="H170" s="2">
+        <v>0.79513888888888895</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>14</v>
+      </c>
+      <c r="B171" t="s">
+        <v>9</v>
+      </c>
+      <c r="C171" t="s">
+        <v>10</v>
+      </c>
+      <c r="D171" t="s">
+        <v>12</v>
+      </c>
+      <c r="F171" t="s">
+        <v>8</v>
+      </c>
+      <c r="G171" s="1">
+        <v>44551</v>
+      </c>
+      <c r="H171" s="2">
+        <v>0.83680555555555602</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>14</v>
+      </c>
+      <c r="B172" t="s">
+        <v>9</v>
+      </c>
+      <c r="C172" t="s">
+        <v>10</v>
+      </c>
+      <c r="D172" t="s">
+        <v>12</v>
+      </c>
+      <c r="F172" t="s">
+        <v>8</v>
+      </c>
+      <c r="G172" s="1">
+        <v>44552</v>
+      </c>
+      <c r="H172" s="2">
+        <v>0.87847222222221899</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>14</v>
+      </c>
+      <c r="B173" t="s">
+        <v>9</v>
+      </c>
+      <c r="C173" t="s">
+        <v>10</v>
+      </c>
+      <c r="D173" t="s">
+        <v>12</v>
+      </c>
+      <c r="F173" t="s">
+        <v>8</v>
+      </c>
+      <c r="G173" s="1">
+        <v>44553</v>
+      </c>
+      <c r="H173" s="2">
+        <v>0.92013888888888495</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>14</v>
+      </c>
+      <c r="B174" t="s">
+        <v>9</v>
+      </c>
+      <c r="C174" t="s">
+        <v>10</v>
+      </c>
+      <c r="D174" t="s">
+        <v>12</v>
+      </c>
+      <c r="F174" t="s">
+        <v>8</v>
+      </c>
+      <c r="G174" s="1">
+        <v>44554</v>
+      </c>
+      <c r="H174" s="2">
+        <v>0.96180555555555203</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>14</v>
+      </c>
+      <c r="B175" t="s">
+        <v>9</v>
+      </c>
+      <c r="C175" t="s">
+        <v>10</v>
+      </c>
+      <c r="D175" t="s">
+        <v>12</v>
+      </c>
+      <c r="F175" t="s">
+        <v>8</v>
+      </c>
+      <c r="G175" s="1">
+        <v>44555</v>
+      </c>
+      <c r="H175" s="2">
+        <v>0.21180555555555555</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B176" t="s">
+        <v>9</v>
+      </c>
+      <c r="C176" t="s">
+        <v>10</v>
+      </c>
+      <c r="D176" t="s">
+        <v>12</v>
+      </c>
+      <c r="F176" t="s">
+        <v>8</v>
+      </c>
+      <c r="G176" s="1">
+        <v>44556</v>
+      </c>
+      <c r="H176" s="2">
+        <v>0.25347222222222199</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B177" t="s">
+        <v>9</v>
+      </c>
+      <c r="C177" t="s">
+        <v>10</v>
+      </c>
+      <c r="D177" t="s">
+        <v>12</v>
+      </c>
+      <c r="F177" t="s">
+        <v>8</v>
+      </c>
+      <c r="G177" s="1">
+        <v>44550</v>
+      </c>
+      <c r="H177" s="2">
+        <v>0.29513888888888901</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B178" t="s">
+        <v>9</v>
+      </c>
+      <c r="C178" t="s">
+        <v>10</v>
+      </c>
+      <c r="D178" t="s">
+        <v>12</v>
+      </c>
+      <c r="F178" t="s">
+        <v>8</v>
+      </c>
+      <c r="G178" s="1">
+        <v>44551</v>
+      </c>
+      <c r="H178" s="2">
+        <v>0.33680555555555602</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B179" t="s">
+        <v>9</v>
+      </c>
+      <c r="C179" t="s">
+        <v>10</v>
+      </c>
+      <c r="D179" t="s">
+        <v>12</v>
+      </c>
+      <c r="F179" t="s">
+        <v>8</v>
+      </c>
+      <c r="G179" s="1">
+        <v>44552</v>
+      </c>
+      <c r="H179" s="2">
+        <v>0.37847222222222199</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B180" t="s">
+        <v>9</v>
+      </c>
+      <c r="C180" t="s">
+        <v>10</v>
+      </c>
+      <c r="D180" t="s">
+        <v>12</v>
+      </c>
+      <c r="F180" t="s">
+        <v>8</v>
+      </c>
+      <c r="G180" s="1">
+        <v>44553</v>
+      </c>
+      <c r="H180" s="2">
+        <v>0.42013888888888901</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B181" t="s">
+        <v>9</v>
+      </c>
+      <c r="C181" t="s">
+        <v>10</v>
+      </c>
+      <c r="D181" t="s">
+        <v>12</v>
+      </c>
+      <c r="F181" t="s">
+        <v>8</v>
+      </c>
+      <c r="G181" s="1">
+        <v>44554</v>
+      </c>
+      <c r="H181" s="2">
+        <v>0.46180555555555602</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B182" t="s">
+        <v>9</v>
+      </c>
+      <c r="C182" t="s">
+        <v>10</v>
+      </c>
+      <c r="D182" t="s">
+        <v>12</v>
+      </c>
+      <c r="F182" t="s">
+        <v>8</v>
+      </c>
+      <c r="G182" s="1">
+        <v>44555</v>
+      </c>
+      <c r="H182" s="2">
+        <v>0.50347222222222199</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B183" t="s">
+        <v>9</v>
+      </c>
+      <c r="C183" t="s">
+        <v>10</v>
+      </c>
+      <c r="D183" t="s">
+        <v>12</v>
+      </c>
+      <c r="F183" t="s">
+        <v>8</v>
+      </c>
+      <c r="G183" s="1">
+        <v>44556</v>
+      </c>
+      <c r="H183" s="2">
+        <v>0.54513888888888895</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B184" t="s">
+        <v>9</v>
+      </c>
+      <c r="C184" t="s">
+        <v>10</v>
+      </c>
+      <c r="D184" t="s">
+        <v>12</v>
+      </c>
+      <c r="F184" t="s">
+        <v>8</v>
+      </c>
+      <c r="G184" s="1">
+        <v>44550</v>
+      </c>
+      <c r="H184" s="2">
+        <v>0.58680555555555602</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B185" t="s">
+        <v>9</v>
+      </c>
+      <c r="C185" t="s">
+        <v>10</v>
+      </c>
+      <c r="D185" t="s">
+        <v>12</v>
+      </c>
+      <c r="F185" t="s">
+        <v>8</v>
+      </c>
+      <c r="G185" s="1">
+        <v>44551</v>
+      </c>
+      <c r="H185" s="2">
+        <v>0.62847222222222199</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B186" t="s">
+        <v>9</v>
+      </c>
+      <c r="C186" t="s">
+        <v>10</v>
+      </c>
+      <c r="D186" t="s">
+        <v>12</v>
+      </c>
+      <c r="F186" t="s">
+        <v>8</v>
+      </c>
+      <c r="G186" s="1">
+        <v>44552</v>
+      </c>
+      <c r="H186" s="2">
+        <v>0.67013888888888895</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B187" t="s">
+        <v>9</v>
+      </c>
+      <c r="C187" t="s">
+        <v>10</v>
+      </c>
+      <c r="D187" t="s">
+        <v>12</v>
+      </c>
+      <c r="F187" t="s">
+        <v>8</v>
+      </c>
+      <c r="G187" s="1">
+        <v>44553</v>
+      </c>
+      <c r="H187" s="2">
+        <v>0.71180555555555602</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B188" t="s">
+        <v>9</v>
+      </c>
+      <c r="C188" t="s">
+        <v>10</v>
+      </c>
+      <c r="D188" t="s">
+        <v>12</v>
+      </c>
+      <c r="F188" t="s">
+        <v>8</v>
+      </c>
+      <c r="G188" s="1">
+        <v>44554</v>
+      </c>
+      <c r="H188" s="2">
+        <v>0.75347222222222199</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B189" t="s">
+        <v>9</v>
+      </c>
+      <c r="C189" t="s">
+        <v>10</v>
+      </c>
+      <c r="D189" t="s">
+        <v>12</v>
+      </c>
+      <c r="F189" t="s">
+        <v>8</v>
+      </c>
+      <c r="G189" s="1">
+        <v>44555</v>
+      </c>
+      <c r="H189" s="2">
+        <v>0.79513888888888895</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A190" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B190" t="s">
+        <v>9</v>
+      </c>
+      <c r="C190" t="s">
+        <v>10</v>
+      </c>
+      <c r="D190" t="s">
+        <v>12</v>
+      </c>
+      <c r="F190" t="s">
+        <v>8</v>
+      </c>
+      <c r="G190" s="1">
+        <v>44556</v>
+      </c>
+      <c r="H190" s="2">
+        <v>0.83680555555555602</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B191" t="s">
+        <v>9</v>
+      </c>
+      <c r="C191" t="s">
+        <v>10</v>
+      </c>
+      <c r="D191" t="s">
+        <v>12</v>
+      </c>
+      <c r="F191" t="s">
+        <v>8</v>
+      </c>
+      <c r="G191" s="1">
+        <v>44550</v>
+      </c>
+      <c r="H191" s="2">
+        <v>0.87847222222221899</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A192" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B192" t="s">
+        <v>9</v>
+      </c>
+      <c r="C192" t="s">
+        <v>10</v>
+      </c>
+      <c r="D192" t="s">
+        <v>12</v>
+      </c>
+      <c r="F192" t="s">
+        <v>8</v>
+      </c>
+      <c r="G192" s="1">
+        <v>44551</v>
+      </c>
+      <c r="H192" s="2">
+        <v>0.92013888888888495</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A193" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B193" t="s">
+        <v>9</v>
+      </c>
+      <c r="C193" t="s">
+        <v>10</v>
+      </c>
+      <c r="D193" t="s">
+        <v>12</v>
+      </c>
+      <c r="F193" t="s">
+        <v>8</v>
+      </c>
+      <c r="G193" s="1">
+        <v>44552</v>
+      </c>
+      <c r="H193" s="2">
+        <v>0.96180555555555203</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A194" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B194" t="s">
+        <v>9</v>
+      </c>
+      <c r="C194" t="s">
+        <v>10</v>
+      </c>
+      <c r="D194" t="s">
+        <v>12</v>
+      </c>
+      <c r="F194" t="s">
+        <v>8</v>
+      </c>
+      <c r="G194" s="1">
+        <v>44553</v>
+      </c>
+      <c r="H194" s="2">
+        <v>0.21180555555555555</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A195" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B195" t="s">
+        <v>9</v>
+      </c>
+      <c r="C195" t="s">
+        <v>10</v>
+      </c>
+      <c r="D195" t="s">
+        <v>12</v>
+      </c>
+      <c r="F195" t="s">
+        <v>8</v>
+      </c>
+      <c r="G195" s="1">
+        <v>44554</v>
+      </c>
+      <c r="H195" s="2">
+        <v>0.25347222222222199</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A196" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B196" t="s">
+        <v>9</v>
+      </c>
+      <c r="C196" t="s">
+        <v>10</v>
+      </c>
+      <c r="D196" t="s">
+        <v>12</v>
+      </c>
+      <c r="F196" t="s">
+        <v>8</v>
+      </c>
+      <c r="G196" s="1">
+        <v>44555</v>
+      </c>
+      <c r="H196" s="2">
+        <v>0.29513888888888901</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B197" t="s">
+        <v>9</v>
+      </c>
+      <c r="C197" t="s">
+        <v>10</v>
+      </c>
+      <c r="D197" t="s">
+        <v>12</v>
+      </c>
+      <c r="F197" t="s">
+        <v>8</v>
+      </c>
+      <c r="G197" s="1">
+        <v>44556</v>
+      </c>
+      <c r="H197" s="2">
+        <v>0.33680555555555602</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A198" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B198" t="s">
+        <v>9</v>
+      </c>
+      <c r="C198" t="s">
+        <v>10</v>
+      </c>
+      <c r="D198" t="s">
+        <v>12</v>
+      </c>
+      <c r="F198" t="s">
+        <v>8</v>
+      </c>
+      <c r="G198" s="1">
+        <v>44550</v>
+      </c>
+      <c r="H198" s="2">
+        <v>0.37847222222222199</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B199" t="s">
+        <v>9</v>
+      </c>
+      <c r="C199" t="s">
+        <v>10</v>
+      </c>
+      <c r="D199" t="s">
+        <v>12</v>
+      </c>
+      <c r="F199" t="s">
+        <v>8</v>
+      </c>
+      <c r="G199" s="1">
+        <v>44551</v>
+      </c>
+      <c r="H199" s="2">
+        <v>0.42013888888888901</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B200" t="s">
+        <v>9</v>
+      </c>
+      <c r="C200" t="s">
+        <v>10</v>
+      </c>
+      <c r="D200" t="s">
+        <v>12</v>
+      </c>
+      <c r="F200" t="s">
+        <v>8</v>
+      </c>
+      <c r="G200" s="1">
+        <v>44552</v>
+      </c>
+      <c r="H200" s="2">
+        <v>0.46180555555555602</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B201" t="s">
+        <v>9</v>
+      </c>
+      <c r="C201" t="s">
+        <v>10</v>
+      </c>
+      <c r="D201" t="s">
+        <v>12</v>
+      </c>
+      <c r="F201" t="s">
+        <v>8</v>
+      </c>
+      <c r="G201" s="1">
+        <v>44553</v>
+      </c>
+      <c r="H201" s="2">
+        <v>0.50347222222222199</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B202" t="s">
+        <v>9</v>
+      </c>
+      <c r="C202" t="s">
+        <v>10</v>
+      </c>
+      <c r="D202" t="s">
+        <v>12</v>
+      </c>
+      <c r="F202" t="s">
+        <v>8</v>
+      </c>
+      <c r="G202" s="1">
+        <v>44554</v>
+      </c>
+      <c r="H202" s="2">
+        <v>0.54513888888888895</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B203" t="s">
+        <v>9</v>
+      </c>
+      <c r="C203" t="s">
+        <v>10</v>
+      </c>
+      <c r="D203" t="s">
+        <v>12</v>
+      </c>
+      <c r="F203" t="s">
+        <v>8</v>
+      </c>
+      <c r="G203" s="1">
+        <v>44555</v>
+      </c>
+      <c r="H203" s="2">
+        <v>0.58680555555555602</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B204" t="s">
+        <v>9</v>
+      </c>
+      <c r="C204" t="s">
+        <v>10</v>
+      </c>
+      <c r="D204" t="s">
+        <v>12</v>
+      </c>
+      <c r="F204" t="s">
+        <v>8</v>
+      </c>
+      <c r="G204" s="1">
+        <v>44556</v>
+      </c>
+      <c r="H204" s="2">
+        <v>0.62847222222222199</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B205" t="s">
+        <v>9</v>
+      </c>
+      <c r="C205" t="s">
+        <v>10</v>
+      </c>
+      <c r="D205" t="s">
+        <v>12</v>
+      </c>
+      <c r="F205" t="s">
+        <v>8</v>
+      </c>
+      <c r="G205" s="1">
+        <v>44550</v>
+      </c>
+      <c r="H205" s="2">
+        <v>0.67013888888888895</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B206" t="s">
+        <v>9</v>
+      </c>
+      <c r="C206" t="s">
+        <v>10</v>
+      </c>
+      <c r="D206" t="s">
+        <v>12</v>
+      </c>
+      <c r="F206" t="s">
+        <v>8</v>
+      </c>
+      <c r="G206" s="1">
+        <v>44551</v>
+      </c>
+      <c r="H206" s="2">
+        <v>0.71180555555555602</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A207" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B207" t="s">
+        <v>9</v>
+      </c>
+      <c r="C207" t="s">
+        <v>10</v>
+      </c>
+      <c r="D207" t="s">
+        <v>12</v>
+      </c>
+      <c r="F207" t="s">
+        <v>8</v>
+      </c>
+      <c r="G207" s="1">
+        <v>44552</v>
+      </c>
+      <c r="H207" s="2">
+        <v>0.75347222222222199</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A208" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B208" t="s">
+        <v>9</v>
+      </c>
+      <c r="C208" t="s">
+        <v>10</v>
+      </c>
+      <c r="D208" t="s">
+        <v>12</v>
+      </c>
+      <c r="F208" t="s">
+        <v>8</v>
+      </c>
+      <c r="G208" s="1">
+        <v>44553</v>
+      </c>
+      <c r="H208" s="2">
+        <v>0.79513888888888895</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A209" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B209" t="s">
+        <v>9</v>
+      </c>
+      <c r="C209" t="s">
+        <v>10</v>
+      </c>
+      <c r="D209" t="s">
+        <v>12</v>
+      </c>
+      <c r="F209" t="s">
+        <v>8</v>
+      </c>
+      <c r="G209" s="1">
+        <v>44554</v>
+      </c>
+      <c r="H209" s="2">
+        <v>0.83680555555555602</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A210" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B210" t="s">
+        <v>9</v>
+      </c>
+      <c r="C210" t="s">
+        <v>10</v>
+      </c>
+      <c r="D210" t="s">
+        <v>12</v>
+      </c>
+      <c r="F210" t="s">
+        <v>8</v>
+      </c>
+      <c r="G210" s="1">
+        <v>44555</v>
+      </c>
+      <c r="H210" s="2">
+        <v>0.87847222222221899</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A211" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B211" t="s">
+        <v>9</v>
+      </c>
+      <c r="C211" t="s">
+        <v>10</v>
+      </c>
+      <c r="D211" t="s">
+        <v>12</v>
+      </c>
+      <c r="F211" t="s">
+        <v>8</v>
+      </c>
+      <c r="G211" s="1">
+        <v>44556</v>
+      </c>
+      <c r="H211" s="2">
+        <v>0.92013888888888495</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A212" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B212" t="s">
+        <v>9</v>
+      </c>
+      <c r="C212" t="s">
+        <v>10</v>
+      </c>
+      <c r="D212" t="s">
+        <v>12</v>
+      </c>
+      <c r="F212" t="s">
+        <v>8</v>
+      </c>
+      <c r="G212" s="1">
+        <v>44550</v>
+      </c>
+      <c r="H212" s="2">
+        <v>0.96180555555555203</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A213" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B213" t="s">
+        <v>9</v>
+      </c>
+      <c r="C213" t="s">
+        <v>10</v>
+      </c>
+      <c r="D213" t="s">
+        <v>12</v>
+      </c>
+      <c r="F213" t="s">
+        <v>8</v>
+      </c>
+      <c r="G213" s="1">
+        <v>44551</v>
+      </c>
+      <c r="H213" s="2">
+        <v>0.21180555555555555</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A214" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B214" t="s">
+        <v>9</v>
+      </c>
+      <c r="C214" t="s">
+        <v>10</v>
+      </c>
+      <c r="D214" t="s">
+        <v>12</v>
+      </c>
+      <c r="F214" t="s">
+        <v>8</v>
+      </c>
+      <c r="G214" s="1">
+        <v>44552</v>
+      </c>
+      <c r="H214" s="2">
+        <v>0.25347222222222199</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A215" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B215" t="s">
+        <v>9</v>
+      </c>
+      <c r="C215" t="s">
+        <v>10</v>
+      </c>
+      <c r="D215" t="s">
+        <v>12</v>
+      </c>
+      <c r="F215" t="s">
+        <v>8</v>
+      </c>
+      <c r="G215" s="1">
+        <v>44553</v>
+      </c>
+      <c r="H215" s="2">
+        <v>0.29513888888888901</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A216" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B216" t="s">
+        <v>9</v>
+      </c>
+      <c r="C216" t="s">
+        <v>10</v>
+      </c>
+      <c r="D216" t="s">
+        <v>12</v>
+      </c>
+      <c r="F216" t="s">
+        <v>8</v>
+      </c>
+      <c r="G216" s="1">
+        <v>44554</v>
+      </c>
+      <c r="H216" s="2">
+        <v>0.33680555555555602</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A217" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B217" t="s">
+        <v>9</v>
+      </c>
+      <c r="C217" t="s">
+        <v>10</v>
+      </c>
+      <c r="D217" t="s">
+        <v>12</v>
+      </c>
+      <c r="F217" t="s">
+        <v>8</v>
+      </c>
+      <c r="G217" s="1">
+        <v>44555</v>
+      </c>
+      <c r="H217" s="2">
+        <v>0.37847222222222199</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A218" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B218" t="s">
+        <v>9</v>
+      </c>
+      <c r="C218" t="s">
+        <v>10</v>
+      </c>
+      <c r="D218" t="s">
+        <v>12</v>
+      </c>
+      <c r="F218" t="s">
+        <v>8</v>
+      </c>
+      <c r="G218" s="1">
+        <v>44556</v>
+      </c>
+      <c r="H218" s="2">
+        <v>0.42013888888888901</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A219" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B219" t="s">
+        <v>9</v>
+      </c>
+      <c r="C219" t="s">
+        <v>10</v>
+      </c>
+      <c r="D219" t="s">
+        <v>12</v>
+      </c>
+      <c r="F219" t="s">
+        <v>8</v>
+      </c>
+      <c r="G219" s="1">
+        <v>44550</v>
+      </c>
+      <c r="H219" s="2">
+        <v>0.46180555555555602</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A220" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B220" t="s">
+        <v>9</v>
+      </c>
+      <c r="C220" t="s">
+        <v>10</v>
+      </c>
+      <c r="D220" t="s">
+        <v>12</v>
+      </c>
+      <c r="F220" t="s">
+        <v>8</v>
+      </c>
+      <c r="G220" s="1">
+        <v>44551</v>
+      </c>
+      <c r="H220" s="2">
+        <v>0.50347222222222199</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A221" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B221" t="s">
+        <v>9</v>
+      </c>
+      <c r="C221" t="s">
+        <v>10</v>
+      </c>
+      <c r="D221" t="s">
+        <v>12</v>
+      </c>
+      <c r="F221" t="s">
+        <v>8</v>
+      </c>
+      <c r="G221" s="1">
+        <v>44552</v>
+      </c>
+      <c r="H221" s="2">
+        <v>0.54513888888888895</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A222" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B222" t="s">
+        <v>9</v>
+      </c>
+      <c r="C222" t="s">
+        <v>10</v>
+      </c>
+      <c r="D222" t="s">
+        <v>12</v>
+      </c>
+      <c r="F222" t="s">
+        <v>8</v>
+      </c>
+      <c r="G222" s="1">
+        <v>44553</v>
+      </c>
+      <c r="H222" s="2">
+        <v>0.58680555555555602</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A223" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B223" t="s">
+        <v>9</v>
+      </c>
+      <c r="C223" t="s">
+        <v>10</v>
+      </c>
+      <c r="D223" t="s">
+        <v>12</v>
+      </c>
+      <c r="F223" t="s">
+        <v>8</v>
+      </c>
+      <c r="G223" s="1">
+        <v>44554</v>
+      </c>
+      <c r="H223" s="2">
+        <v>0.62847222222222199</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A224" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B224" t="s">
+        <v>9</v>
+      </c>
+      <c r="C224" t="s">
+        <v>10</v>
+      </c>
+      <c r="D224" t="s">
+        <v>12</v>
+      </c>
+      <c r="F224" t="s">
+        <v>8</v>
+      </c>
+      <c r="G224" s="1">
+        <v>44555</v>
+      </c>
+      <c r="H224" s="2">
+        <v>0.67013888888888895</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A225" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B225" t="s">
+        <v>9</v>
+      </c>
+      <c r="C225" t="s">
+        <v>10</v>
+      </c>
+      <c r="D225" t="s">
+        <v>12</v>
+      </c>
+      <c r="F225" t="s">
+        <v>8</v>
+      </c>
+      <c r="G225" s="1">
+        <v>44556</v>
+      </c>
+      <c r="H225" s="2">
+        <v>0.71180555555555602</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A226" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B226" t="s">
+        <v>9</v>
+      </c>
+      <c r="C226" t="s">
+        <v>10</v>
+      </c>
+      <c r="D226" t="s">
+        <v>12</v>
+      </c>
+      <c r="F226" t="s">
+        <v>8</v>
+      </c>
+      <c r="G226" s="1">
+        <v>44550</v>
+      </c>
+      <c r="H226" s="2">
+        <v>0.75347222222222199</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A227" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B227" t="s">
+        <v>9</v>
+      </c>
+      <c r="C227" t="s">
+        <v>10</v>
+      </c>
+      <c r="D227" t="s">
+        <v>12</v>
+      </c>
+      <c r="F227" t="s">
+        <v>8</v>
+      </c>
+      <c r="G227" s="1">
+        <v>44551</v>
+      </c>
+      <c r="H227" s="2">
+        <v>0.79513888888888895</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A228" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B228" t="s">
+        <v>9</v>
+      </c>
+      <c r="C228" t="s">
+        <v>10</v>
+      </c>
+      <c r="D228" t="s">
+        <v>12</v>
+      </c>
+      <c r="F228" t="s">
+        <v>8</v>
+      </c>
+      <c r="G228" s="1">
+        <v>44552</v>
+      </c>
+      <c r="H228" s="2">
+        <v>0.83680555555555602</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A229" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B229" t="s">
+        <v>9</v>
+      </c>
+      <c r="C229" t="s">
+        <v>10</v>
+      </c>
+      <c r="D229" t="s">
+        <v>12</v>
+      </c>
+      <c r="F229" t="s">
+        <v>8</v>
+      </c>
+      <c r="G229" s="1">
+        <v>44553</v>
+      </c>
+      <c r="H229" s="2">
+        <v>0.87847222222221899</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A230" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B230" t="s">
+        <v>9</v>
+      </c>
+      <c r="C230" t="s">
+        <v>10</v>
+      </c>
+      <c r="D230" t="s">
+        <v>12</v>
+      </c>
+      <c r="F230" t="s">
+        <v>8</v>
+      </c>
+      <c r="G230" s="1">
+        <v>44554</v>
+      </c>
+      <c r="H230" s="2">
+        <v>0.92013888888888495</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A231" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B231" t="s">
+        <v>9</v>
+      </c>
+      <c r="C231" t="s">
+        <v>10</v>
+      </c>
+      <c r="D231" t="s">
+        <v>12</v>
+      </c>
+      <c r="F231" t="s">
+        <v>8</v>
+      </c>
+      <c r="G231" s="1">
+        <v>44555</v>
+      </c>
+      <c r="H231" s="2">
+        <v>0.96180555555555203</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A232" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B232" t="s">
+        <v>9</v>
+      </c>
+      <c r="C232" t="s">
+        <v>10</v>
+      </c>
+      <c r="D232" t="s">
+        <v>12</v>
+      </c>
+      <c r="F232" t="s">
+        <v>8</v>
+      </c>
+      <c r="G232" s="1">
+        <v>44556</v>
+      </c>
+      <c r="H232" s="2">
+        <v>0.21180555555555555</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A233" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B233" t="s">
+        <v>9</v>
+      </c>
+      <c r="C233" t="s">
+        <v>10</v>
+      </c>
+      <c r="D233" t="s">
+        <v>12</v>
+      </c>
+      <c r="F233" t="s">
+        <v>8</v>
+      </c>
+      <c r="G233" s="1">
+        <v>44550</v>
+      </c>
+      <c r="H233" s="2">
+        <v>0.25347222222222199</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A234" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B234" t="s">
+        <v>9</v>
+      </c>
+      <c r="C234" t="s">
+        <v>10</v>
+      </c>
+      <c r="D234" t="s">
+        <v>12</v>
+      </c>
+      <c r="F234" t="s">
+        <v>8</v>
+      </c>
+      <c r="G234" s="1">
+        <v>44551</v>
+      </c>
+      <c r="H234" s="2">
+        <v>0.29513888888888901</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A235" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B235" t="s">
+        <v>9</v>
+      </c>
+      <c r="C235" t="s">
+        <v>10</v>
+      </c>
+      <c r="D235" t="s">
+        <v>12</v>
+      </c>
+      <c r="F235" t="s">
+        <v>8</v>
+      </c>
+      <c r="G235" s="1">
+        <v>44552</v>
+      </c>
+      <c r="H235" s="2">
+        <v>0.33680555555555602</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A236" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B236" t="s">
+        <v>9</v>
+      </c>
+      <c r="C236" t="s">
+        <v>10</v>
+      </c>
+      <c r="D236" t="s">
+        <v>12</v>
+      </c>
+      <c r="F236" t="s">
+        <v>8</v>
+      </c>
+      <c r="G236" s="1">
+        <v>44553</v>
+      </c>
+      <c r="H236" s="2">
+        <v>0.37847222222222199</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A237" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B237" t="s">
+        <v>9</v>
+      </c>
+      <c r="C237" t="s">
+        <v>10</v>
+      </c>
+      <c r="D237" t="s">
+        <v>12</v>
+      </c>
+      <c r="F237" t="s">
+        <v>8</v>
+      </c>
+      <c r="G237" s="1">
+        <v>44554</v>
+      </c>
+      <c r="H237" s="2">
+        <v>0.42013888888888901</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A238" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B238" t="s">
+        <v>9</v>
+      </c>
+      <c r="C238" t="s">
+        <v>10</v>
+      </c>
+      <c r="D238" t="s">
+        <v>12</v>
+      </c>
+      <c r="F238" t="s">
+        <v>8</v>
+      </c>
+      <c r="G238" s="1">
+        <v>44555</v>
+      </c>
+      <c r="H238" s="2">
+        <v>0.46180555555555602</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A239" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B239" t="s">
+        <v>9</v>
+      </c>
+      <c r="C239" t="s">
+        <v>10</v>
+      </c>
+      <c r="D239" t="s">
+        <v>12</v>
+      </c>
+      <c r="F239" t="s">
+        <v>8</v>
+      </c>
+      <c r="G239" s="1">
+        <v>44556</v>
+      </c>
+      <c r="H239" s="2">
+        <v>0.50347222222222199</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A240" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B240" t="s">
+        <v>9</v>
+      </c>
+      <c r="C240" t="s">
+        <v>10</v>
+      </c>
+      <c r="D240" t="s">
+        <v>12</v>
+      </c>
+      <c r="F240" t="s">
+        <v>8</v>
+      </c>
+      <c r="G240" s="1">
+        <v>44550</v>
+      </c>
+      <c r="H240" s="2">
+        <v>0.54513888888888895</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A241" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B241" t="s">
+        <v>9</v>
+      </c>
+      <c r="C241" t="s">
+        <v>10</v>
+      </c>
+      <c r="D241" t="s">
+        <v>12</v>
+      </c>
+      <c r="F241" t="s">
+        <v>8</v>
+      </c>
+      <c r="G241" s="1">
+        <v>44551</v>
+      </c>
+      <c r="H241" s="2">
+        <v>0.58680555555555602</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A242" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B242" t="s">
+        <v>9</v>
+      </c>
+      <c r="C242" t="s">
+        <v>10</v>
+      </c>
+      <c r="D242" t="s">
+        <v>12</v>
+      </c>
+      <c r="F242" t="s">
+        <v>8</v>
+      </c>
+      <c r="G242" s="1">
+        <v>44552</v>
+      </c>
+      <c r="H242" s="2">
+        <v>0.62847222222222199</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A243" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B243" t="s">
+        <v>9</v>
+      </c>
+      <c r="C243" t="s">
+        <v>10</v>
+      </c>
+      <c r="D243" t="s">
+        <v>12</v>
+      </c>
+      <c r="F243" t="s">
+        <v>8</v>
+      </c>
+      <c r="G243" s="1">
+        <v>44553</v>
+      </c>
+      <c r="H243" s="2">
+        <v>0.67013888888888895</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A244" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B244" t="s">
+        <v>9</v>
+      </c>
+      <c r="C244" t="s">
+        <v>10</v>
+      </c>
+      <c r="D244" t="s">
+        <v>12</v>
+      </c>
+      <c r="F244" t="s">
+        <v>8</v>
+      </c>
+      <c r="G244" s="1">
+        <v>44554</v>
+      </c>
+      <c r="H244" s="2">
+        <v>0.71180555555555602</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A245" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B245" t="s">
+        <v>9</v>
+      </c>
+      <c r="C245" t="s">
+        <v>10</v>
+      </c>
+      <c r="D245" t="s">
+        <v>12</v>
+      </c>
+      <c r="F245" t="s">
+        <v>8</v>
+      </c>
+      <c r="G245" s="1">
+        <v>44555</v>
+      </c>
+      <c r="H245" s="2">
+        <v>0.75347222222222199</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A246" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B246" t="s">
+        <v>9</v>
+      </c>
+      <c r="C246" t="s">
+        <v>10</v>
+      </c>
+      <c r="D246" t="s">
+        <v>12</v>
+      </c>
+      <c r="F246" t="s">
+        <v>8</v>
+      </c>
+      <c r="G246" s="1">
+        <v>44556</v>
+      </c>
+      <c r="H246" s="2">
+        <v>0.79513888888888895</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A247" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B247" t="s">
+        <v>9</v>
+      </c>
+      <c r="C247" t="s">
+        <v>10</v>
+      </c>
+      <c r="D247" t="s">
+        <v>12</v>
+      </c>
+      <c r="F247" t="s">
+        <v>8</v>
+      </c>
+      <c r="G247" s="1">
+        <v>44550</v>
+      </c>
+      <c r="H247" s="2">
+        <v>0.83680555555555602</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A248" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B248" t="s">
+        <v>9</v>
+      </c>
+      <c r="C248" t="s">
+        <v>10</v>
+      </c>
+      <c r="D248" t="s">
+        <v>12</v>
+      </c>
+      <c r="F248" t="s">
+        <v>8</v>
+      </c>
+      <c r="G248" s="1">
+        <v>44551</v>
+      </c>
+      <c r="H248" s="2">
+        <v>0.87847222222221899</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A249" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B249" t="s">
+        <v>9</v>
+      </c>
+      <c r="C249" t="s">
+        <v>10</v>
+      </c>
+      <c r="D249" t="s">
+        <v>12</v>
+      </c>
+      <c r="F249" t="s">
+        <v>8</v>
+      </c>
+      <c r="G249" s="1">
+        <v>44552</v>
+      </c>
+      <c r="H249" s="2">
+        <v>0.92013888888888495</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A250" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B250" t="s">
+        <v>9</v>
+      </c>
+      <c r="C250" t="s">
+        <v>10</v>
+      </c>
+      <c r="D250" t="s">
+        <v>12</v>
+      </c>
+      <c r="F250" t="s">
+        <v>8</v>
+      </c>
+      <c r="G250" s="1">
+        <v>44553</v>
+      </c>
+      <c r="H250" s="2">
+        <v>0.96180555555555203</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A251" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B251" t="s">
+        <v>9</v>
+      </c>
+      <c r="C251" t="s">
+        <v>10</v>
+      </c>
+      <c r="D251" t="s">
+        <v>12</v>
+      </c>
+      <c r="F251" t="s">
+        <v>8</v>
+      </c>
+      <c r="G251" s="1">
+        <v>44554</v>
+      </c>
+      <c r="H251" s="2">
+        <v>0.21180555555555555</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A252" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B252" t="s">
+        <v>9</v>
+      </c>
+      <c r="C252" t="s">
+        <v>10</v>
+      </c>
+      <c r="D252" t="s">
+        <v>12</v>
+      </c>
+      <c r="F252" t="s">
+        <v>8</v>
+      </c>
+      <c r="G252" s="1">
+        <v>44555</v>
+      </c>
+      <c r="H252" s="2">
+        <v>0.25347222222222199</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A253" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B253" t="s">
+        <v>9</v>
+      </c>
+      <c r="C253" t="s">
+        <v>10</v>
+      </c>
+      <c r="D253" t="s">
+        <v>12</v>
+      </c>
+      <c r="F253" t="s">
+        <v>8</v>
+      </c>
+      <c r="G253" s="1">
+        <v>44556</v>
+      </c>
+      <c r="H253" s="2">
+        <v>0.29513888888888901</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A254" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B254" t="s">
+        <v>9</v>
+      </c>
+      <c r="C254" t="s">
+        <v>10</v>
+      </c>
+      <c r="D254" t="s">
+        <v>12</v>
+      </c>
+      <c r="F254" t="s">
+        <v>8</v>
+      </c>
+      <c r="G254" s="1">
+        <v>44550</v>
+      </c>
+      <c r="H254" s="2">
+        <v>0.33680555555555602</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A255" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B255" t="s">
+        <v>9</v>
+      </c>
+      <c r="C255" t="s">
+        <v>10</v>
+      </c>
+      <c r="D255" t="s">
+        <v>12</v>
+      </c>
+      <c r="F255" t="s">
+        <v>8</v>
+      </c>
+      <c r="G255" s="1">
+        <v>44551</v>
+      </c>
+      <c r="H255" s="2">
+        <v>0.37847222222222199</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A256" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B256" t="s">
+        <v>9</v>
+      </c>
+      <c r="C256" t="s">
+        <v>10</v>
+      </c>
+      <c r="D256" t="s">
+        <v>12</v>
+      </c>
+      <c r="F256" t="s">
+        <v>8</v>
+      </c>
+      <c r="G256" s="1">
+        <v>44552</v>
+      </c>
+      <c r="H256" s="2">
+        <v>0.42013888888888901</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A257" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B257" t="s">
+        <v>9</v>
+      </c>
+      <c r="C257" t="s">
+        <v>10</v>
+      </c>
+      <c r="D257" t="s">
+        <v>12</v>
+      </c>
+      <c r="F257" t="s">
+        <v>8</v>
+      </c>
+      <c r="G257" s="1">
+        <v>44553</v>
+      </c>
+      <c r="H257" s="2">
+        <v>0.46180555555555602</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A258" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B258" t="s">
+        <v>9</v>
+      </c>
+      <c r="C258" t="s">
+        <v>10</v>
+      </c>
+      <c r="D258" t="s">
+        <v>12</v>
+      </c>
+      <c r="F258" t="s">
+        <v>8</v>
+      </c>
+      <c r="G258" s="1">
+        <v>44554</v>
+      </c>
+      <c r="H258" s="2">
+        <v>0.50347222222222199</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A259" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B259" t="s">
+        <v>9</v>
+      </c>
+      <c r="C259" t="s">
+        <v>10</v>
+      </c>
+      <c r="D259" t="s">
+        <v>12</v>
+      </c>
+      <c r="F259" t="s">
+        <v>8</v>
+      </c>
+      <c r="G259" s="1">
+        <v>44555</v>
+      </c>
+      <c r="H259" s="2">
+        <v>0.54513888888888895</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A260" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B260" t="s">
+        <v>9</v>
+      </c>
+      <c r="C260" t="s">
+        <v>10</v>
+      </c>
+      <c r="D260" t="s">
+        <v>12</v>
+      </c>
+      <c r="F260" t="s">
+        <v>8</v>
+      </c>
+      <c r="G260" s="1">
+        <v>44556</v>
+      </c>
+      <c r="H260" s="2">
+        <v>0.58680555555555602</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A261" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B261" t="s">
+        <v>9</v>
+      </c>
+      <c r="C261" t="s">
+        <v>10</v>
+      </c>
+      <c r="D261" t="s">
+        <v>12</v>
+      </c>
+      <c r="F261" t="s">
+        <v>8</v>
+      </c>
+      <c r="G261" s="1">
+        <v>44550</v>
+      </c>
+      <c r="H261" s="2">
+        <v>0.62847222222222199</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A262" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B262" t="s">
+        <v>9</v>
+      </c>
+      <c r="C262" t="s">
+        <v>10</v>
+      </c>
+      <c r="D262" t="s">
+        <v>12</v>
+      </c>
+      <c r="F262" t="s">
+        <v>8</v>
+      </c>
+      <c r="G262" s="1">
+        <v>44551</v>
+      </c>
+      <c r="H262" s="2">
+        <v>0.67013888888888895</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A263" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B263" t="s">
+        <v>9</v>
+      </c>
+      <c r="C263" t="s">
+        <v>10</v>
+      </c>
+      <c r="D263" t="s">
+        <v>12</v>
+      </c>
+      <c r="F263" t="s">
+        <v>8</v>
+      </c>
+      <c r="G263" s="1">
+        <v>44552</v>
+      </c>
+      <c r="H263" s="2">
+        <v>0.71180555555555602</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A264" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B264" t="s">
+        <v>9</v>
+      </c>
+      <c r="C264" t="s">
+        <v>10</v>
+      </c>
+      <c r="D264" t="s">
+        <v>12</v>
+      </c>
+      <c r="F264" t="s">
+        <v>8</v>
+      </c>
+      <c r="G264" s="1">
+        <v>44553</v>
+      </c>
+      <c r="H264" s="2">
+        <v>0.75347222222222199</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A265" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B265" t="s">
+        <v>9</v>
+      </c>
+      <c r="C265" t="s">
+        <v>10</v>
+      </c>
+      <c r="D265" t="s">
+        <v>12</v>
+      </c>
+      <c r="F265" t="s">
+        <v>8</v>
+      </c>
+      <c r="G265" s="1">
+        <v>44554</v>
+      </c>
+      <c r="H265" s="2">
+        <v>0.79513888888888895</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A266" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B266" t="s">
+        <v>9</v>
+      </c>
+      <c r="C266" t="s">
+        <v>10</v>
+      </c>
+      <c r="D266" t="s">
+        <v>12</v>
+      </c>
+      <c r="F266" t="s">
+        <v>8</v>
+      </c>
+      <c r="G266" s="1">
+        <v>44555</v>
+      </c>
+      <c r="H266" s="2">
+        <v>0.83680555555555602</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A267" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B267" t="s">
+        <v>9</v>
+      </c>
+      <c r="C267" t="s">
+        <v>10</v>
+      </c>
+      <c r="D267" t="s">
+        <v>12</v>
+      </c>
+      <c r="F267" t="s">
+        <v>8</v>
+      </c>
+      <c r="G267" s="1">
+        <v>44556</v>
+      </c>
+      <c r="H267" s="2">
+        <v>0.87847222222221899</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A268" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B268" t="s">
+        <v>9</v>
+      </c>
+      <c r="C268" t="s">
+        <v>10</v>
+      </c>
+      <c r="D268" t="s">
+        <v>12</v>
+      </c>
+      <c r="F268" t="s">
+        <v>8</v>
+      </c>
+      <c r="G268" s="1">
+        <v>44550</v>
+      </c>
+      <c r="H268" s="2">
+        <v>0.92013888888888495</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A269" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B269" t="s">
+        <v>9</v>
+      </c>
+      <c r="C269" t="s">
+        <v>10</v>
+      </c>
+      <c r="D269" t="s">
+        <v>12</v>
+      </c>
+      <c r="F269" t="s">
+        <v>8</v>
+      </c>
+      <c r="G269" s="1">
+        <v>44551</v>
+      </c>
+      <c r="H269" s="2">
+        <v>0.96180555555555203</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A270" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B270" t="s">
+        <v>9</v>
+      </c>
+      <c r="C270" t="s">
+        <v>10</v>
+      </c>
+      <c r="D270" t="s">
+        <v>12</v>
+      </c>
+      <c r="F270" t="s">
+        <v>8</v>
+      </c>
+      <c r="G270" s="1">
+        <v>44552</v>
+      </c>
+      <c r="H270" s="2">
+        <v>0.21180555555555555</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A271" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B271" t="s">
+        <v>9</v>
+      </c>
+      <c r="C271" t="s">
+        <v>10</v>
+      </c>
+      <c r="D271" t="s">
+        <v>12</v>
+      </c>
+      <c r="F271" t="s">
+        <v>8</v>
+      </c>
+      <c r="G271" s="1">
+        <v>44553</v>
+      </c>
+      <c r="H271" s="2">
+        <v>0.25347222222222199</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A272" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B272" t="s">
+        <v>9</v>
+      </c>
+      <c r="C272" t="s">
+        <v>10</v>
+      </c>
+      <c r="D272" t="s">
+        <v>12</v>
+      </c>
+      <c r="F272" t="s">
+        <v>8</v>
+      </c>
+      <c r="G272" s="1">
+        <v>44554</v>
+      </c>
+      <c r="H272" s="2">
+        <v>0.29513888888888901</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A273" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B273" t="s">
+        <v>9</v>
+      </c>
+      <c r="C273" t="s">
+        <v>10</v>
+      </c>
+      <c r="D273" t="s">
+        <v>12</v>
+      </c>
+      <c r="F273" t="s">
+        <v>8</v>
+      </c>
+      <c r="G273" s="1">
+        <v>44555</v>
+      </c>
+      <c r="H273" s="2">
+        <v>0.33680555555555602</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A274" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B274" t="s">
+        <v>9</v>
+      </c>
+      <c r="C274" t="s">
+        <v>10</v>
+      </c>
+      <c r="D274" t="s">
+        <v>12</v>
+      </c>
+      <c r="F274" t="s">
+        <v>8</v>
+      </c>
+      <c r="G274" s="1">
+        <v>44556</v>
+      </c>
+      <c r="H274" s="2">
+        <v>0.37847222222222199</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A275" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B275" t="s">
+        <v>9</v>
+      </c>
+      <c r="C275" t="s">
+        <v>10</v>
+      </c>
+      <c r="D275" t="s">
+        <v>12</v>
+      </c>
+      <c r="F275" t="s">
+        <v>8</v>
+      </c>
+      <c r="G275" s="1">
+        <v>44550</v>
+      </c>
+      <c r="H275" s="2">
+        <v>0.42013888888888901</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A276" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B276" t="s">
+        <v>9</v>
+      </c>
+      <c r="C276" t="s">
+        <v>10</v>
+      </c>
+      <c r="D276" t="s">
+        <v>12</v>
+      </c>
+      <c r="F276" t="s">
+        <v>8</v>
+      </c>
+      <c r="G276" s="1">
+        <v>44551</v>
+      </c>
+      <c r="H276" s="2">
+        <v>0.46180555555555602</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A277" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B277" t="s">
+        <v>9</v>
+      </c>
+      <c r="C277" t="s">
+        <v>10</v>
+      </c>
+      <c r="D277" t="s">
+        <v>12</v>
+      </c>
+      <c r="F277" t="s">
+        <v>8</v>
+      </c>
+      <c r="G277" s="1">
+        <v>44552</v>
+      </c>
+      <c r="H277" s="2">
+        <v>0.50347222222222199</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A278" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B278" t="s">
+        <v>9</v>
+      </c>
+      <c r="C278" t="s">
+        <v>10</v>
+      </c>
+      <c r="D278" t="s">
+        <v>12</v>
+      </c>
+      <c r="F278" t="s">
+        <v>8</v>
+      </c>
+      <c r="G278" s="1">
+        <v>44553</v>
+      </c>
+      <c r="H278" s="2">
+        <v>0.54513888888888895</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A279" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B279" t="s">
+        <v>9</v>
+      </c>
+      <c r="C279" t="s">
+        <v>10</v>
+      </c>
+      <c r="D279" t="s">
+        <v>12</v>
+      </c>
+      <c r="F279" t="s">
+        <v>8</v>
+      </c>
+      <c r="G279" s="1">
+        <v>44554</v>
+      </c>
+      <c r="H279" s="2">
+        <v>0.58680555555555602</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A280" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B280" t="s">
+        <v>9</v>
+      </c>
+      <c r="C280" t="s">
+        <v>10</v>
+      </c>
+      <c r="D280" t="s">
+        <v>12</v>
+      </c>
+      <c r="F280" t="s">
+        <v>8</v>
+      </c>
+      <c r="G280" s="1">
+        <v>44555</v>
+      </c>
+      <c r="H280" s="2">
+        <v>0.62847222222222199</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A281" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B281" t="s">
+        <v>9</v>
+      </c>
+      <c r="C281" t="s">
+        <v>10</v>
+      </c>
+      <c r="D281" t="s">
+        <v>12</v>
+      </c>
+      <c r="F281" t="s">
+        <v>8</v>
+      </c>
+      <c r="G281" s="1">
+        <v>44556</v>
+      </c>
+      <c r="H281" s="2">
+        <v>0.67013888888888895</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A282" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B282" t="s">
+        <v>9</v>
+      </c>
+      <c r="C282" t="s">
+        <v>10</v>
+      </c>
+      <c r="D282" t="s">
+        <v>12</v>
+      </c>
+      <c r="F282" t="s">
+        <v>8</v>
+      </c>
+      <c r="G282" s="1">
+        <v>44550</v>
+      </c>
+      <c r="H282" s="2">
+        <v>0.71180555555555602</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A283" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B283" t="s">
+        <v>9</v>
+      </c>
+      <c r="C283" t="s">
+        <v>10</v>
+      </c>
+      <c r="D283" t="s">
+        <v>12</v>
+      </c>
+      <c r="F283" t="s">
+        <v>8</v>
+      </c>
+      <c r="G283" s="1">
+        <v>44551</v>
+      </c>
+      <c r="H283" s="2">
+        <v>0.75347222222222199</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A284" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B284" t="s">
+        <v>9</v>
+      </c>
+      <c r="C284" t="s">
+        <v>10</v>
+      </c>
+      <c r="D284" t="s">
+        <v>12</v>
+      </c>
+      <c r="F284" t="s">
+        <v>8</v>
+      </c>
+      <c r="G284" s="1">
+        <v>44552</v>
+      </c>
+      <c r="H284" s="2">
+        <v>0.79513888888888895</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A285" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B285" t="s">
+        <v>9</v>
+      </c>
+      <c r="C285" t="s">
+        <v>10</v>
+      </c>
+      <c r="D285" t="s">
+        <v>12</v>
+      </c>
+      <c r="F285" t="s">
+        <v>8</v>
+      </c>
+      <c r="G285" s="1">
+        <v>44553</v>
+      </c>
+      <c r="H285" s="2">
+        <v>0.83680555555555602</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A286" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B286" t="s">
+        <v>9</v>
+      </c>
+      <c r="C286" t="s">
+        <v>10</v>
+      </c>
+      <c r="D286" t="s">
+        <v>12</v>
+      </c>
+      <c r="F286" t="s">
+        <v>8</v>
+      </c>
+      <c r="G286" s="1">
+        <v>44554</v>
+      </c>
+      <c r="H286" s="2">
+        <v>0.87847222222221899</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A287" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B287" t="s">
+        <v>9</v>
+      </c>
+      <c r="C287" t="s">
+        <v>10</v>
+      </c>
+      <c r="D287" t="s">
+        <v>12</v>
+      </c>
+      <c r="F287" t="s">
+        <v>8</v>
+      </c>
+      <c r="G287" s="1">
+        <v>44555</v>
+      </c>
+      <c r="H287" s="2">
+        <v>0.92013888888888495</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A288" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B288" t="s">
+        <v>9</v>
+      </c>
+      <c r="C288" t="s">
+        <v>10</v>
+      </c>
+      <c r="D288" t="s">
+        <v>12</v>
+      </c>
+      <c r="F288" t="s">
+        <v>8</v>
+      </c>
+      <c r="G288" s="1">
+        <v>44556</v>
+      </c>
+      <c r="H288" s="2">
+        <v>0.96180555555555203</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A289" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B289" t="s">
+        <v>9</v>
+      </c>
+      <c r="C289" t="s">
+        <v>10</v>
+      </c>
+      <c r="D289" t="s">
+        <v>12</v>
+      </c>
+      <c r="F289" t="s">
+        <v>8</v>
+      </c>
+      <c r="G289" s="1">
+        <v>44550</v>
+      </c>
+      <c r="H289" s="2">
+        <v>0.21180555555555555</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A290" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B290" t="s">
+        <v>9</v>
+      </c>
+      <c r="C290" t="s">
+        <v>10</v>
+      </c>
+      <c r="D290" t="s">
+        <v>12</v>
+      </c>
+      <c r="F290" t="s">
+        <v>8</v>
+      </c>
+      <c r="G290" s="1">
+        <v>44551</v>
+      </c>
+      <c r="H290" s="2">
+        <v>0.25347222222222199</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A291" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B291" t="s">
+        <v>9</v>
+      </c>
+      <c r="C291" t="s">
+        <v>10</v>
+      </c>
+      <c r="D291" t="s">
+        <v>12</v>
+      </c>
+      <c r="F291" t="s">
+        <v>8</v>
+      </c>
+      <c r="G291" s="1">
+        <v>44552</v>
+      </c>
+      <c r="H291" s="2">
+        <v>0.29513888888888901</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A292" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B292" t="s">
+        <v>9</v>
+      </c>
+      <c r="C292" t="s">
+        <v>10</v>
+      </c>
+      <c r="D292" t="s">
+        <v>12</v>
+      </c>
+      <c r="F292" t="s">
+        <v>8</v>
+      </c>
+      <c r="G292" s="1">
+        <v>44553</v>
+      </c>
+      <c r="H292" s="2">
+        <v>0.33680555555555602</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A293" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B293" t="s">
+        <v>9</v>
+      </c>
+      <c r="C293" t="s">
+        <v>10</v>
+      </c>
+      <c r="D293" t="s">
+        <v>12</v>
+      </c>
+      <c r="F293" t="s">
+        <v>8</v>
+      </c>
+      <c r="G293" s="1">
+        <v>44554</v>
+      </c>
+      <c r="H293" s="2">
+        <v>0.37847222222222199</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A294" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B294" t="s">
+        <v>9</v>
+      </c>
+      <c r="C294" t="s">
+        <v>10</v>
+      </c>
+      <c r="D294" t="s">
+        <v>12</v>
+      </c>
+      <c r="F294" t="s">
+        <v>8</v>
+      </c>
+      <c r="G294" s="1">
+        <v>44555</v>
+      </c>
+      <c r="H294" s="2">
+        <v>0.42013888888888901</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A295" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B295" t="s">
+        <v>9</v>
+      </c>
+      <c r="C295" t="s">
+        <v>10</v>
+      </c>
+      <c r="D295" t="s">
+        <v>12</v>
+      </c>
+      <c r="F295" t="s">
+        <v>8</v>
+      </c>
+      <c r="G295" s="1">
+        <v>44556</v>
+      </c>
+      <c r="H295" s="2">
+        <v>0.46180555555555602</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A296" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B296" t="s">
+        <v>9</v>
+      </c>
+      <c r="C296" t="s">
+        <v>10</v>
+      </c>
+      <c r="D296" t="s">
+        <v>12</v>
+      </c>
+      <c r="F296" t="s">
+        <v>8</v>
+      </c>
+      <c r="G296" s="1">
+        <v>44550</v>
+      </c>
+      <c r="H296" s="2">
+        <v>0.50347222222222199</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A297" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B297" t="s">
+        <v>9</v>
+      </c>
+      <c r="C297" t="s">
+        <v>10</v>
+      </c>
+      <c r="D297" t="s">
+        <v>12</v>
+      </c>
+      <c r="F297" t="s">
+        <v>8</v>
+      </c>
+      <c r="G297" s="1">
+        <v>44551</v>
+      </c>
+      <c r="H297" s="2">
+        <v>0.54513888888888895</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A298" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B298" t="s">
+        <v>9</v>
+      </c>
+      <c r="C298" t="s">
+        <v>10</v>
+      </c>
+      <c r="D298" t="s">
+        <v>12</v>
+      </c>
+      <c r="F298" t="s">
+        <v>8</v>
+      </c>
+      <c r="G298" s="1">
+        <v>44552</v>
+      </c>
+      <c r="H298" s="2">
+        <v>0.58680555555555602</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A299" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B299" t="s">
+        <v>9</v>
+      </c>
+      <c r="C299" t="s">
+        <v>10</v>
+      </c>
+      <c r="D299" t="s">
+        <v>12</v>
+      </c>
+      <c r="F299" t="s">
+        <v>8</v>
+      </c>
+      <c r="G299" s="1">
+        <v>44553</v>
+      </c>
+      <c r="H299" s="2">
+        <v>0.62847222222222199</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A300" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B300" t="s">
+        <v>9</v>
+      </c>
+      <c r="C300" t="s">
+        <v>10</v>
+      </c>
+      <c r="D300" t="s">
+        <v>12</v>
+      </c>
+      <c r="F300" t="s">
+        <v>8</v>
+      </c>
+      <c r="G300" s="1">
+        <v>44554</v>
+      </c>
+      <c r="H300" s="2">
+        <v>0.67013888888888895</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A301" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B301" t="s">
+        <v>9</v>
+      </c>
+      <c r="C301" t="s">
+        <v>10</v>
+      </c>
+      <c r="D301" t="s">
+        <v>12</v>
+      </c>
+      <c r="F301" t="s">
+        <v>8</v>
+      </c>
+      <c r="G301" s="1">
+        <v>44555</v>
+      </c>
+      <c r="H301" s="2">
+        <v>0.71180555555555602</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A302" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B302" t="s">
+        <v>9</v>
+      </c>
+      <c r="C302" t="s">
+        <v>10</v>
+      </c>
+      <c r="D302" t="s">
+        <v>12</v>
+      </c>
+      <c r="F302" t="s">
+        <v>8</v>
+      </c>
+      <c r="G302" s="1">
+        <v>44556</v>
+      </c>
+      <c r="H302" s="2">
+        <v>0.75347222222222199</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A303" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B303" t="s">
+        <v>9</v>
+      </c>
+      <c r="C303" t="s">
+        <v>10</v>
+      </c>
+      <c r="D303" t="s">
+        <v>12</v>
+      </c>
+      <c r="F303" t="s">
+        <v>8</v>
+      </c>
+      <c r="G303" s="1">
+        <v>44550</v>
+      </c>
+      <c r="H303" s="2">
+        <v>0.79513888888888895</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A304" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B304" t="s">
+        <v>9</v>
+      </c>
+      <c r="C304" t="s">
+        <v>10</v>
+      </c>
+      <c r="D304" t="s">
+        <v>12</v>
+      </c>
+      <c r="F304" t="s">
+        <v>8</v>
+      </c>
+      <c r="G304" s="1">
+        <v>44551</v>
+      </c>
+      <c r="H304" s="2">
+        <v>0.83680555555555602</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A305" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B305" t="s">
+        <v>9</v>
+      </c>
+      <c r="C305" t="s">
+        <v>10</v>
+      </c>
+      <c r="D305" t="s">
+        <v>12</v>
+      </c>
+      <c r="F305" t="s">
+        <v>8</v>
+      </c>
+      <c r="G305" s="1">
+        <v>44552</v>
+      </c>
+      <c r="H305" s="2">
+        <v>0.87847222222221899</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A306" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B306" t="s">
+        <v>9</v>
+      </c>
+      <c r="C306" t="s">
+        <v>10</v>
+      </c>
+      <c r="D306" t="s">
+        <v>12</v>
+      </c>
+      <c r="F306" t="s">
+        <v>8</v>
+      </c>
+      <c r="G306" s="1">
+        <v>44553</v>
+      </c>
+      <c r="H306" s="2">
+        <v>0.92013888888888495</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A307" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B307" t="s">
+        <v>9</v>
+      </c>
+      <c r="C307" t="s">
+        <v>10</v>
+      </c>
+      <c r="D307" t="s">
+        <v>12</v>
+      </c>
+      <c r="F307" t="s">
+        <v>8</v>
+      </c>
+      <c r="G307" s="1">
+        <v>44554</v>
+      </c>
+      <c r="H307" s="2">
+        <v>0.96180555555555203</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A308" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B308" t="s">
+        <v>9</v>
+      </c>
+      <c r="C308" t="s">
+        <v>10</v>
+      </c>
+      <c r="D308" t="s">
+        <v>12</v>
+      </c>
+      <c r="F308" t="s">
+        <v>8</v>
+      </c>
+      <c r="G308" s="1">
+        <v>44555</v>
+      </c>
+      <c r="H308" s="2">
+        <v>0.21180555555555555</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A309" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B309" t="s">
+        <v>9</v>
+      </c>
+      <c r="C309" t="s">
+        <v>10</v>
+      </c>
+      <c r="D309" t="s">
+        <v>12</v>
+      </c>
+      <c r="F309" t="s">
+        <v>8</v>
+      </c>
+      <c r="G309" s="1">
+        <v>44556</v>
+      </c>
+      <c r="H309" s="2">
+        <v>0.25347222222222199</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G310" s="1"/>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G311" s="1"/>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G312" s="1"/>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G313" s="1"/>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G314" s="1"/>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G315" s="1"/>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G316" s="1"/>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G317" s="1"/>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G318" s="1"/>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G319" s="1"/>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G320" s="1"/>
+    </row>
+    <row r="321" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G321" s="1"/>
+    </row>
+    <row r="322" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G322" s="1"/>
+    </row>
+    <row r="323" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G323" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H152" xr:uid="{54286B2F-8F8B-4A1D-B837-ABCC2119E95E}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
